--- a/public/preprocessing/@aheryawan.xlsx
+++ b/public/preprocessing/@aheryawan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15451</v>
+        <v>26218</v>
       </c>
       <c r="C2" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>dan pers yang menghibur dengan suguhan aneka budaya nusantara yg bhineka serta pers yang mengklarifikasi hoaks yang</t>
+          <t>rt saran prof ketum icmi agar perpres investasi miras dibatalkan krn dampaknya yg merusak sikap ini bersesuaian dg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['dan', 'pers', 'yang', 'menghibur', 'dengan', 'suguhan', 'aneka', 'budaya', 'nusantara', 'yg', 'bhineka', 'serta', 'pers', 'yang', 'mengklarifikasi', 'hoaks', 'yang']</t>
+          <t>['rt', 'saran', 'prof', 'ketum', 'icmi', 'agar', 'perpres', 'investasi', 'miras', 'dibatalkan', 'krn', 'dampaknya', 'yg', 'merusak', 'sikap', 'ini', 'bersesuaian', 'dg']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'saran', 'prof', 'ketua, umum', 'ikatan, cendekiawan, muslim, indonesia', 'agar', 'peraturan, presiden', 'investasi', 'minuman, keras', 'dibatalkan', 'karena', 'dampaknya', 'yang', 'merusak', 'sikap', 'ini', 'bersesuaian', 'dengan']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['pers', 'menghibur', 'suguhan', 'aneka', 'budaya', 'nusantara', 'bhineka', 'pers', 'mengklarifikasi', 'hoaks']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['pers', 'hibur', 'suguh', 'aneka', 'budaya', 'nusantara', 'bhineka', 'pers', 'klarifikasi', 'hoaks']</t>
+          <t>['saran', 'prof', 'ketua, umum', 'ikatan, cendekiawan, muslim, indonesia', 'peraturan, presiden', 'investasi', 'minuman, keras', 'dibatalkan', 'dampaknya', 'merusak', 'sikap', 'bersesuaian']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['saran', 'prof', 'ketua umum', 'ikat cendekiawan muslim indonesia', 'atur presiden', 'investasi', 'minum keras', 'batal', 'dampak', 'rusak', 'sikap', 'suai']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15452</v>
+        <v>26219</v>
       </c>
       <c r="C3" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>masyarakat merindukan pers yang bisa mengontrol jalannya pemerintahan agar berjalan sesuai hati nurani rakyat pers</t>
+          <t>dan pers yang menghibur dengan suguhan aneka budaya nusantara yg bhineka serta pers yang mengklarifikasi hoaks yang</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['masyarakat', 'merindukan', 'pers', 'yang', 'bisa', 'mengontrol', 'jalannya', 'pemerintahan', 'agar', 'berjalan', 'sesuai', 'hati', 'nurani', 'rakyat', 'pers']</t>
+          <t>['dan', 'pers', 'yang', 'menghibur', 'dengan', 'suguhan', 'aneka', 'budaya', 'nusantara', 'yg', 'bhineka', 'serta', 'pers', 'yang', 'mengklarifikasi', 'hoaks', 'yang']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['dan', 'pers', 'yang', 'menghibur', 'dengan', 'suguhan', 'aneka', 'budaya', 'nusantara', 'yang', 'bineka', 'serta', 'pers', 'yang', 'mengklarifikasi', 'hoaks', 'yang']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['masyarakat', 'merindukan', 'pers', 'mengontrol', 'jalannya', 'pemerintahan', 'berjalan', 'sesuai', 'hati', 'nurani', 'rakyat', 'pers']</t>
+          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['masyarakat', 'rindu', 'pers', 'kontrol', 'jalan', 'perintah', 'jalan', 'sesuai', 'hati', 'nurani', 'rakyat', 'pers']</t>
+          <t>['pers', 'menghibur', 'suguhan', 'aneka', 'budaya', 'nusantara', 'bineka', 'pers', 'mengklarifikasi', 'hoaks']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['pers', 'hibur', 'suguh', 'aneka', 'budaya', 'nusantara', 'bineka', 'pers', 'klarifikasi', 'hoaks']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15453</v>
+        <v>26220</v>
       </c>
       <c r="C4" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>selamat hari pers nasional selamat memperingati hari pers pada rekan rekan media saya yakin insyaallah pers indon</t>
+          <t>masyarakat merindukan pers yang bisa mengontrol jalannya pemerintahan agar berjalan sesuai hati nurani rakyat pers</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['selamat', 'hari', 'pers', 'nasional', 'selamat', 'memperingati', 'hari', 'pers', 'pada', 'rekan', 'rekan', 'media', 'saya', 'yakin', 'insyaallah', 'pers', 'indon']</t>
+          <t>['masyarakat', 'merindukan', 'pers', 'yang', 'bisa', 'mengontrol', 'jalannya', 'pemerintahan', 'agar', 'berjalan', 'sesuai', 'hati', 'nurani', 'rakyat', 'pers']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 17 outcomes&gt;</t>
+          <t>['masyarakat', 'merindukan', 'pers', 'yang', 'bisa', 'mengontrol', 'jalannya', 'pemerintahan', 'agar', 'berjalan', 'sesuai', 'hati', 'nurani', 'rakyat', 'pers']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['selamat', 'pers', 'nasional', 'selamat', 'memperingati', 'pers', 'rekan', 'rekan', 'media', 'insyaallah', 'pers', 'indon']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['selamat', 'pers', 'nasional', 'selamat', 'ingat', 'pers', 'rekan', 'rekan', 'media', 'insyaallah', 'pers', 'indon']</t>
+          <t>['masyarakat', 'merindukan', 'pers', 'mengontrol', 'jalannya', 'pemerintahan', 'berjalan', 'sesuai', 'hati', 'nurani', 'rakyat', 'pers']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['masyarakat', 'rindu', 'pers', 'kontrol', 'jalan', 'perintah', 'jalan', 'sesuai', 'hati', 'nurani', 'rakyat', 'pers']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15454</v>
+        <v>26221</v>
       </c>
       <c r="C5" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>rt selamat harlah ke nahdlatul ulama januari januari semoga semakin berkhidmat dalam me</t>
+          <t>selamat hari pers nasional selamat memperingati hari pers pada rekan rekan media saya yakin insyaallah pers indon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['rt', 'selamat', 'harlah', 'ke', 'nahdlatul', 'ulama', 'januari', 'januari', 'semoga', 'semakin', 'berkhidmat', 'dalam', 'me']</t>
+          <t>['selamat', 'hari', 'pers', 'nasional', 'selamat', 'memperingati', 'hari', 'pers', 'pada', 'rekan', 'rekan', 'media', 'saya', 'yakin', 'insyaallah', 'pers', 'indon']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['selamat', 'hari', 'pers', 'nasional', 'selamat', 'memperingati', 'hari', 'pers', 'pada', 'rekan', 'rekan', 'media', 'saya', 'yakin', 'insyaallah', 'pers', 'indon']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['selamat', 'harlah', 'nahdlatul', 'ulama', 'januari', 'januari', 'semoga', 'berkhidmat', 'me']</t>
+          <t>&lt;FreqDist with 12 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['selamat', 'harlah', 'nahdlatul', 'ulama', 'januari', 'januari', 'moga', 'khidmat', 'me']</t>
+          <t>['selamat', 'pers', 'nasional', 'selamat', 'memperingati', 'pers', 'rekan', 'rekan', 'media', 'insyaallah', 'pers', 'indon']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['selamat', 'pers', 'nasional', 'selamat', 'ingat', 'pers', 'rekan', 'rekan', 'media', 'insyaallah', 'pers', 'indon']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15455</v>
+        <v>26222</v>
       </c>
       <c r="C6" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>selamat harlah nu yang nu besar krn kekuatan nilai yg diyakininya nilai islam yg moderat dan inklusif krn koh</t>
+          <t>rt selamat harlah ke nahdlatul ulama januari januari semoga semakin berkhidmat dalam me</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['selamat', 'harlah', 'nu', 'yang', 'nu', 'besar', 'krn', 'kekuatan', 'nilai', 'yg', 'diyakininya', 'nilai', 'islam', 'yg', 'moderat', 'dan', 'inklusif', 'krn', 'koh']</t>
+          <t>['rt', 'selamat', 'harlah', 'ke', 'nahdlatul', 'ulama', 'januari', 'januari', 'semoga', 'semakin', 'berkhidmat', 'dalam', 'me']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'harlah', 'ke', 'nahdlatul', 'ulama', 'januari', 'januari', 'semoga', 'semakin', 'berkhidmat', 'dalam', 'me']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['selamat', 'harlah', 'nu', 'nu', 'kekuatan', 'nilai', 'diyakininya', 'nilai', 'islam', 'moderat', 'inklusif', 'koh']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['selamat', 'harlah', 'nu', 'nu', 'kuat', 'nilai', 'yakin', 'nilai', 'islam', 'moderat', 'inklusif', 'koh']</t>
+          <t>['selamat', 'harlah', 'nahdlatul', 'ulama', 'januari', 'januari', 'semoga', 'berkhidmat', 'me']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['selamat', 'harlah', 'nahdlatul', 'ulama', 'januari', 'januari', 'moga', 'khidmat', 'me']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15456</v>
+        <v>26223</v>
       </c>
       <c r="C7" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>selamat harlah ke menyebarkan aswaja membumikan wasathiyyatul islam dan meneguhkan komitmen</t>
+          <t>selamat harlah nu yang nu besar krn kekuatan nilai yg diyakininya nilai islam yg moderat dan inklusif krn koh</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['selamat', 'harlah', 'ke', 'menyebarkan', 'aswaja', 'membumikan', 'wasathiyyatul', 'islam', 'dan', 'meneguhkan', 'komitmen']</t>
+          <t>['selamat', 'harlah', 'nu', 'yang', 'nu', 'besar', 'krn', 'kekuatan', 'nilai', 'yg', 'diyakininya', 'nilai', 'islam', 'yg', 'moderat', 'dan', 'inklusif', 'krn', 'koh']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['selamat', 'harlah', 'nu', 'yang', 'nu', 'besar', 'karena', 'kekuatan', 'nilai', 'yang', 'diyakininya', 'nilai', 'islam', 'yang', 'moderat', 'dan', 'inklusif', 'karena', 'koh']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['selamat', 'harlah', 'menyebarkan', 'aswaja', 'membumikan', 'wasathiyyatul', 'islam', 'meneguhkan', 'komitmen']</t>
+          <t>&lt;FreqDist with 14 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['selamat', 'harlah', 'sebar', 'aswaja', 'bumi', 'wasathiyyatul', 'islam', 'teguh', 'komitmen']</t>
+          <t>['selamat', 'harlah', 'nu', 'nu', 'kekuatan', 'nilai', 'diyakininya', 'nilai', 'islam', 'moderat', 'inklusif', 'koh']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['selamat', 'harlah', 'nu', 'nu', 'kuat', 'nilai', 'yakin', 'nilai', 'islam', 'moderat', 'inklusif', 'koh']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15457</v>
+        <v>26224</v>
       </c>
       <c r="C8" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>rt kiai asad said ali menyarankan pbnu bersikap tegas terkait abu janda</t>
+          <t>selamat harlah ke menyebarkan aswaja membumikan wasathiyyatul islam dan meneguhkan komitmen</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['rt', 'kiai', 'asad', 'said', 'ali', 'menyarankan', 'pbnu', 'bersikap', 'tegas', 'terkait', 'abu', 'janda']</t>
+          <t>['selamat', 'harlah', 'ke', 'menyebarkan', 'aswaja', 'membumikan', 'wasathiyyatul', 'islam', 'dan', 'meneguhkan', 'komitmen']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['selamat', 'harlah', 'ke', 'menyebarkan', 'aswaja', 'membumikan', 'wasathiyyatul', 'islam', 'dan', 'meneguhkan', 'komitmen']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['kiai', 'asad', 'said', 'ali', 'menyarankan', 'pbnu', 'bersikap', 'terkait', 'abu', 'janda']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['kiai', 'asad', 'said', 'ali', 'saran', 'pbnu', 'sikap', 'kait', 'abu', 'janda']</t>
+          <t>['selamat', 'harlah', 'menyebarkan', 'aswaja', 'membumikan', 'wasathiyyatul', 'islam', 'meneguhkan', 'komitmen']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['selamat', 'harlah', 'sebar', 'aswaja', 'bumi', 'wasathiyyatul', 'islam', 'teguh', 'komitmen']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15458</v>
+        <v>26225</v>
       </c>
       <c r="C9" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>rt kiai asad said ali menyarankan pbnu bersikap tegas terkait abu janda</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['rt', 'kiai', 'asad', 'said', 'ali', 'menyarankan', 'pbnu', 'bersikap', 'tegas', 'terkait', 'abu', 'janda']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'kiai', 'asad', 'said', 'ali', 'menyarankan', 'pengurus, besar, nahdlatul, ulama', 'bersikap', 'tegas', 'terkait', 'abu', 'janda']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['kiai', 'asad', 'said', 'ali', 'menyarankan', 'pengurus, besar, nahdlatul, ulama', 'bersikap', 'terkait', 'abu', 'janda']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['kiai', 'asad', 'said', 'ali', 'saran', 'urus besar nahdlatul ulama', 'sikap', 'kait', 'abu', 'janda']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15459</v>
+        <v>26226</v>
       </c>
       <c r="C10" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>rt banyak wajah baru cucu mbah moen dan putera mantan ketum pbnu jadi pengurus dpp ppp</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['rt', 'banyak', 'wajah', 'baru', 'cucu', 'mbah', 'moen', 'dan', 'putera', 'mantan', 'ketum', 'pbnu', 'jadi', 'pengurus', 'dpp', 'ppp']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['wajah', 'cucu', 'mbah', 'moen', 'putera', 'mantan', 'ketum', 'pbnu', 'pengurus', 'dpp', 'ppp']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['wajah', 'cucu', 'mbah', 'moen', 'putera', 'mantan', 'tum', 'pbnu', 'urus', 'dpp', 'ppp']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15460</v>
+        <v>26227</v>
       </c>
       <c r="C11" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>bravoselamat menunaikan tugas kemanusiaan doa saya dari bandung membersamai semua saudara di kalsel smg abanj</t>
+          <t>rt banyak wajah baru cucu mbah moen dan putera mantan ketum pbnu jadi pengurus dpp ppp</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['bravoselamat', 'menunaikan', 'tugas', 'kemanusiaan', 'doa', 'saya', 'dari', 'bandung', 'membersamai', 'semua', 'saudara', 'di', 'kalsel', 'smg', 'abanj']</t>
+          <t>['rt', 'banyak', 'wajah', 'baru', 'cucu', 'mbah', 'moen', 'dan', 'putera', 'mantan', 'ketum', 'pbnu', 'jadi', 'pengurus', 'dpp', 'ppp']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'banyak', 'wajah', 'baru', 'cucu', 'mbah', 'momen', 'dan', 'putera', 'mantan', 'ketua, umum', 'pengurus, besar, nahdlatul, ulama', 'jadi', 'pengurus', 'dasar, pengenaan, pajak', 'ppp']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['bravoselamat', 'menunaikan', 'tugas', 'kemanusiaan', 'doa', 'bandung', 'membersamai', 'saudara', 'kalsel', 'smg', 'abanj']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['bravoselamat', 'tunai', 'tugas', 'manusia', 'doa', 'bandung', 'sama', 'saudara', 'kalsel', 'smg', 'abanj']</t>
+          <t>['wajah', 'cucu', 'mbah', 'momen', 'putera', 'mantan', 'ketua, umum', 'pengurus, besar, nahdlatul, ulama', 'pengurus', 'dasar, pengenaan, pajak', 'ppp']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['wajah', 'cucu', 'mbah', 'momen', 'putera', 'mantan', 'ketua umum', 'urus besar nahdlatul ulama', 'urus', 'dasar kena pajak', 'ppp']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15461</v>
+        <v>26228</v>
       </c>
       <c r="C12" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>belum kering air mata dari musibah longsor sumedang jabar jatuhnya pesawat sriwijaya air banjir besar di kalimant</t>
+          <t>bravoselamat menunaikan tugas kemanusiaan doa saya dari bandung membersamai semua saudara di kalsel smg abanj</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['belum', 'kering', 'air', 'mata', 'dari', 'musibah', 'longsor', 'sumedang', 'jabar', 'jatuhnya', 'pesawat', 'sriwijaya', 'air', 'banjir', 'besar', 'di', 'kalimant']</t>
+          <t>['bravoselamat', 'menunaikan', 'tugas', 'kemanusiaan', 'doa', 'saya', 'dari', 'bandung', 'membersamai', 'semua', 'saudara', 'di', 'kalsel', 'smg', 'abanj']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['bravoselamat', 'menunaikan', 'tugas', 'kemanusiaan', 'doa', 'saya', 'dari', 'bandung', 'membersamai', 'semua', 'saudara', 'di', 'kalsel', 'semoga', 'abanj']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['kering', 'air', 'mata', 'musibah', 'longsor', 'sumedang', 'jabar', 'jatuhnya', 'pesawat', 'sriwijaya', 'air', 'banjir', 'kalimant']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['kering', 'air', 'mata', 'musibah', 'longsor', 'sumedang', 'jabar', 'jatuh', 'pesawat', 'sriwijaya', 'air', 'banjir', 'kalimant']</t>
+          <t>['bravoselamat', 'menunaikan', 'tugas', 'kemanusiaan', 'doa', 'bandung', 'membersamai', 'saudara', 'kalsel', 'semoga', 'abanj']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['bravoselamat', 'tunai', 'tugas', 'manusia', 'doa', 'bandung', 'sama', 'saudara', 'kalsel', 'moga', 'abanj']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15462</v>
+        <v>26229</v>
       </c>
       <c r="C13" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>sabar kanginsya allah pandemi selesai urang ngabobotohan persib deui bismillah urang vaksin heula yuu</t>
+          <t>belum kering air mata dari musibah longsor sumedang jabar jatuhnya pesawat sriwijaya air banjir besar di kalimant</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['sabar', 'kanginsya', 'allah', 'pandemi', 'selesai', 'urang', 'ngabobotohan', 'persib', 'deui', 'bismillah', 'urang', 'vaksin', 'heula', 'yuu']</t>
+          <t>['belum', 'kering', 'air', 'mata', 'dari', 'musibah', 'longsor', 'sumedang', 'jabar', 'jatuhnya', 'pesawat', 'sriwijaya', 'air', 'banjir', 'besar', 'di', 'kalimant']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['belum', 'kering', 'air', 'mata', 'dari', 'musibah', 'longsor', 'sumedang', 'jabar', 'jatuhnya', 'pesawat', 'sriwijaya', 'air', 'banjir', 'besar', 'di', 'kalimant']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['sabar', 'kanginsya', 'allah', 'pandemi', 'selesai', 'urang', 'ngabobotohan', 'persib', 'deui', 'bismillah', 'urang', 'vaksin', 'heula', 'yuu']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['sabar', 'kanginsya', 'allah', 'pandemi', 'selesai', 'urang', 'ngabobotohan', 'persib', 'deui', 'bismillah', 'urang', 'vaksin', 'heula', 'yuu']</t>
+          <t>['kering', 'air', 'mata', 'musibah', 'longsor', 'sumedang', 'jabar', 'jatuhnya', 'pesawat', 'sriwijaya', 'air', 'banjir', 'kalimant']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['kering', 'air', 'mata', 'musibah', 'longsor', 'sumedang', 'jabar', 'jatuh', 'pesawat', 'sriwijaya', 'air', 'banjir', 'kalimant']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15463</v>
+        <v>26230</v>
       </c>
       <c r="C14" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>rt teman yang baik bukan mereka yang selalu setuju denganmu melainkan mereka yang mau meluangkan waktunya untuk mengingatka</t>
+          <t>sabar kanginsya allah pandemi selesai urang ngabobotohan persib deui bismillah urang vaksin heula yuu</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['rt', 'teman', 'yang', 'baik', 'bukan', 'mereka', 'yang', 'selalu', 'setuju', 'denganmu', 'melainkan', 'mereka', 'yang', 'mau', 'meluangkan', 'waktunya', 'untuk', 'mengingatka']</t>
+          <t>['sabar', 'kanginsya', 'allah', 'pandemi', 'selesai', 'urang', 'ngabobotohan', 'persib', 'deui', 'bismillah', 'urang', 'vaksin', 'heula', 'yuu']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['sabar', 'kanginsya', 'allah', 'pandemi', 'selesai', 'urang', 'ngabobotohan', 'persib', 'lagi', 'bismillah', 'urang', 'vaksin', 'cepat', 'ayo']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['teman', 'setuju', 'denganmu', 'meluangkan', 'mengingatka']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['teman', 'tuju', 'dengan', 'luang', 'mengingatka']</t>
+          <t>['sabar', 'kanginsya', 'allah', 'pandemi', 'selesai', 'urang', 'ngabobotohan', 'persib', 'bismillah', 'urang', 'vaksin', 'cepat', 'ayo']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['sabar', 'kanginsya', 'allah', 'pandemi', 'selesai', 'urang', 'ngabobotohan', 'persib', 'bismillah', 'urang', 'vaksin', 'cepat', 'ayo']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15464</v>
+        <v>26231</v>
       </c>
       <c r="C15" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>amiiin ya robbsmg kita tersenyum saat bertemu allah yang maha agung</t>
+          <t>rt teman yang baik bukan mereka yang selalu setuju denganmu melainkan mereka yang mau meluangkan waktunya untuk mengingatka</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['amiiin', 'ya', 'robbsmg', 'kita', 'tersenyum', 'saat', 'bertemu', 'allah', 'yang', 'maha', 'agung']</t>
+          <t>['rt', 'teman', 'yang', 'baik', 'bukan', 'mereka', 'yang', 'selalu', 'setuju', 'denganmu', 'melainkan', 'mereka', 'yang', 'mau', 'meluangkan', 'waktunya', 'untuk', 'mengingatka']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'teman', 'yang', 'baik', 'bukan', 'mereka', 'yang', 'selalu', 'setuju', 'denganmu', 'melainkan', 'mereka', 'yang', 'mau', 'meluangkan', 'waktunya', 'untuk', 'mengingatka']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['amiiin', 'robbsmg', 'tersenyum', 'bertemu', 'allah', 'maha', 'agung']</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['amiiin', 'robbsmg', 'senyum', 'temu', 'allah', 'maha', 'agung']</t>
+          <t>['teman', 'setuju', 'denganmu', 'meluangkan', 'mengingatka']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['teman', 'tuju', 'dengan', 'luang', 'mengingatka']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15465</v>
+        <v>26232</v>
       </c>
       <c r="C16" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>bersyukur dan kita sambut ada perubahan narasi dari kemenkes dari narasi pemberian sanksi menjadi pemberian pengha</t>
+          <t>amiiin ya robbsmg kita tersenyum saat bertemu allah yang maha agung</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['bersyukur', 'dan', 'kita', 'sambut', 'ada', 'perubahan', 'narasi', 'dari', 'kemenkes', 'dari', 'narasi', 'pemberian', 'sanksi', 'menjadi', 'pemberian', 'pengha']</t>
+          <t>['amiiin', 'ya', 'robbsmg', 'kita', 'tersenyum', 'saat', 'bertemu', 'allah', 'yang', 'maha', 'agung']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['amin', 'ya', 'robbsmg', 'kita', 'tersenyum', 'saat', 'bertemu', 'allah', 'yang', 'maha', 'agung']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['bersyukur', 'sambut', 'perubahan', 'narasi', 'kemenkes', 'narasi', 'pemberian', 'sanksi', 'pemberian', 'pengha']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['syukur', 'sambut', 'ubah', 'narasi', 'kemenkes', 'narasi', 'beri', 'sanksi', 'beri', 'pengha']</t>
+          <t>['amin', 'robbsmg', 'tersenyum', 'bertemu', 'allah', 'maha', 'agung']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['amin', 'robbsmg', 'senyum', 'temu', 'allah', 'maha', 'agung']</t>
         </is>
       </c>
     </row>
@@ -1015,30 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15466</v>
+        <v>26233</v>
       </c>
       <c r="C17" t="n">
-        <v>196</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>312</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>bersyukur dan kita sambut ada perubahan narasi dari kemenkes dari narasi pemberian sanksi menjadi pemberian pengha</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bersyukur', 'dan', 'kita', 'sambut', 'ada', 'perubahan', 'narasi', 'dari', 'kemenkes', 'dari', 'narasi', 'pemberian', 'sanksi', 'menjadi', 'pemberian', 'pengha']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['bersyukur', 'dan', 'kita', 'sambut', 'ada', 'perubahan', 'narasi', 'dari', 'kemenkes', 'dari', 'narasi', 'pemberian', 'sanksi', 'menjadi', 'pemberian', 'pengha']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bersyukur', 'sambut', 'perubahan', 'narasi', 'kemenkes', 'narasi', 'pemberian', 'sanksi', 'pemberian', 'pengha']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['syukur', 'sambut', 'ubah', 'narasi', 'kemenkes', 'narasi', 'beri', 'sanksi', 'beri', 'pengha']</t>
         </is>
       </c>
     </row>
@@ -1047,34 +1136,35 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15467</v>
+        <v>26234</v>
       </c>
       <c r="C18" t="n">
-        <v>196</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>rt alqarnee</t>
-        </is>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['rt', 'alqarnee']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['alqarnee']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['alqarnee']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1083,10 +1173,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15468</v>
+        <v>26235</v>
       </c>
       <c r="C19" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1100,15 +1190,20 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['rt', 'alqarnee']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>['alqarnee']</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>['alqarnee']</t>
         </is>
@@ -1119,34 +1214,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15469</v>
+        <v>26236</v>
       </c>
       <c r="C20" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>rt almusawa anakku jadilah selalu orang baik yaa sb orang baik takkan pernah berhenti berbuat baik meski kebaikannya tak dih</t>
+          <t>rt alqarnee</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['rt', 'almusawa', 'anakku', 'jadilah', 'selalu', 'orang', 'baik', 'yaa', 'sb', 'orang', 'baik', 'takkan', 'pernah', 'berhenti', 'berbuat', 'baik', 'meski', 'kebaikannya', 'tak', 'dih']</t>
+          <t>['rt', 'alqarnee']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'alqarnee']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['almusawa', 'anakku', 'orang', 'yaa', 'sb', 'orang', 'takkan', 'berhenti', 'berbuat', 'kebaikannya', 'dih']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['almusawa', 'anak', 'orang', 'yaa', 'sb', 'orang', 'tak', 'henti', 'buat', 'baik', 'dih']</t>
+          <t>['alqarnee']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['alqarnee']</t>
         </is>
       </c>
     </row>
@@ -1155,34 +1255,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15470</v>
+        <v>26237</v>
       </c>
       <c r="C21" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>rt bpk presiden jika boleh titip lagi tertibkan segera praktik value extraction kasat mata yg rugikan negara puluhan bahk</t>
+          <t>rt almusawa anakku jadilah selalu orang baik yaa sb orang baik takkan pernah berhenti berbuat baik meski kebaikannya tak dih</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['rt', 'bpk', 'presiden', 'jika', 'boleh', 'titip', 'lagi', 'tertibkan', 'segera', 'praktik', 'value', 'extraction', 'kasat', 'mata', 'yg', 'rugikan', 'negara', 'puluhan', 'bahk']</t>
+          <t>['rt', 'almusawa', 'anakku', 'jadilah', 'selalu', 'orang', 'baik', 'yaa', 'sb', 'orang', 'baik', 'takkan', 'pernah', 'berhenti', 'berbuat', 'baik', 'meski', 'kebaikannya', 'tak', 'dih']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'al, musawa', 'anakku', 'jadilah', 'selalu', 'orang', 'baik', 'ya', 'sb', 'orang', 'baik', 'tak, akan', 'pernah', 'berhenti', 'berbuat', 'baik', 'meski', 'kebaikannya', 'tak', 'ih']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['bpk', 'presiden', 'titip', 'tertibkan', 'praktik', 'value', 'extraction', 'kasat', 'mata', 'rugikan', 'negara', 'puluhan', 'bahk']</t>
+          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['bpk', 'presiden', 'titip', 'tertib', 'praktik', 'value', 'extraction', 'kasat', 'mata', 'rugi', 'negara', 'puluh', 'bahk']</t>
+          <t>['al, musawa', 'anakku', 'orang', 'sb', 'orang', 'tak, akan', 'berhenti', 'berbuat', 'kebaikannya', 'ih']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['al musawa', 'anak', 'orang', 'sb', 'orang', 'tak akan', 'henti', 'buat', 'baik', 'ih']</t>
         </is>
       </c>
     </row>
@@ -1191,34 +1296,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15471</v>
+        <v>26238</v>
       </c>
       <c r="C22" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>rt turut belasungkawa atas tewasnya laskar fpi yg ditembak aparat innaalillahiwainnaailaihirajiun allah yme tidak tidur us</t>
+          <t>rt bpk presiden jika boleh titip lagi tertibkan segera praktik value extraction kasat mata yg rugikan negara puluhan bahk</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['rt', 'turut', 'belasungkawa', 'atas', 'tewasnya', 'laskar', 'fpi', 'yg', 'ditembak', 'aparat', 'innaalillahiwainnaailaihirajiun', 'allah', 'yme', 'tidak', 'tidur', 'us']</t>
+          <t>['rt', 'bpk', 'presiden', 'jika', 'boleh', 'titip', 'lagi', 'tertibkan', 'segera', 'praktik', 'value', 'extraction', 'kasat', 'mata', 'yg', 'rugikan', 'negara', 'puluhan', 'bahk']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'bapak', 'presiden', 'jika', 'boleh', 'titip', 'lagi', 'tertibkan', 'segera', 'praktik', 'value', 'extraction', 'kasat', 'mata', 'yang', 'rugikan', 'negara', 'puluhan', 'bahk']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['belasungkawa', 'tewasnya', 'laskar', 'fpi', 'ditembak', 'aparat', 'innaalillahiwainnaailaihirajiun', 'allah', 'yme', 'tidur', 'us']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['belasungkawa', 'tewas', 'laskar', 'fpi', 'tembak', 'aparat', 'innaalillahiwainnaailaihirajiun', 'allah', 'yme', 'tidur', 'us']</t>
+          <t>['presiden', 'titip', 'tertibkan', 'praktik', 'value', 'extraction', 'kasat', 'mata', 'rugikan', 'negara', 'puluhan', 'bahk']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['presiden', 'titip', 'tertib', 'praktik', 'value', 'extraction', 'kasat', 'mata', 'rugi', 'negara', 'puluh', 'bahk']</t>
         </is>
       </c>
     </row>
@@ -1227,34 +1337,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15472</v>
+        <v>26239</v>
       </c>
       <c r="C23" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>kepada saudara semuanya mari saksikan puncak live di akun besok pagi sampai sore</t>
+          <t>rt turut belasungkawa atas tewasnya laskar fpi yg ditembak aparat innaalillahiwainnaailaihirajiun allah yme tidak tidur us</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['kepada', 'saudara', 'semuanya', 'mari', 'saksikan', 'puncak', 'live', 'di', 'akun', 'besok', 'pagi', 'sampai', 'sore']</t>
+          <t>['rt', 'turut', 'belasungkawa', 'atas', 'tewasnya', 'laskar', 'fpi', 'yg', 'ditembak', 'aparat', 'innaalillahiwainnaailaihirajiun', 'allah', 'yme', 'tidak', 'tidur', 'us']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'turut', 'belasungkawa', 'atas', 'tewasnya', 'laskar', 'front, pembela, islam', 'yang', 'ditembak', 'aparat', 'innaalillahiwainnaailaihirajiun', 'allah', 'yang, maha, esa', 'tidak', 'tidur', 'us']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['saudara', 'mari', 'saksikan', 'puncak', 'live', 'akun', 'besok', 'pagi', 'sore']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['saudara', 'mari', 'saksi', 'puncak', 'live', 'akun', 'besok', 'pagi', 'sore']</t>
+          <t>['belasungkawa', 'tewasnya', 'laskar', 'front, pembela, islam', 'ditembak', 'aparat', 'innaalillahiwainnaailaihirajiun', 'allah', 'yang, maha, esa', 'tidur', 'us']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['belasungkawa', 'tewas', 'laskar', 'front bela islam', 'tembak', 'aparat', 'innaalillahiwainnaailaihirajiun', 'allah', 'yang maha esa', 'tidur', 'us']</t>
         </is>
       </c>
     </row>
@@ -1263,34 +1378,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15473</v>
+        <v>26240</v>
       </c>
       <c r="C24" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>rt selamat munas warna mu semakin nampak namun tetaplah rendah hati dalam memaksimalkan usaha membantu masyarakat</t>
+          <t>kepada saudara semuanya mari saksikan puncak live di akun besok pagi sampai sore</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['rt', 'selamat', 'munas', 'warna', 'mu', 'semakin', 'nampak', 'namun', 'tetaplah', 'rendah', 'hati', 'dalam', 'memaksimalkan', 'usaha', 'membantu', 'masyarakat']</t>
+          <t>['kepada', 'saudara', 'semuanya', 'mari', 'saksikan', 'puncak', 'live', 'di', 'akun', 'besok', 'pagi', 'sampai', 'sore']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['kepada', 'saudara', 'semuanya', 'mari', 'saksikan', 'puncak', 'live', 'di', 'akun', 'besok', 'pagi', 'sampai', 'sore']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['selamat', 'munas', 'warna', 'mu', 'nampak', 'tetaplah', 'rendah', 'hati', 'memaksimalkan', 'usaha', 'membantu', 'masyarakat']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['selamat', 'munas', 'warna', 'mu', 'nampak', 'tetap', 'rendah', 'hati', 'maksimal', 'usaha', 'bantu', 'masyarakat']</t>
+          <t>['saudara', 'mari', 'saksikan', 'puncak', 'live', 'akun', 'besok', 'pagi', 'sore']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['saudara', 'mari', 'saksi', 'puncak', 'live', 'akun', 'besok', 'pagi', 'sore']</t>
         </is>
       </c>
     </row>
@@ -1299,34 +1419,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15474</v>
+        <v>26241</v>
       </c>
       <c r="C25" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>meluruskan arah bangsa dgn wasathiyyatul islam pancasila dan uud secara murni dan konsekwen ahmad</t>
+          <t>rt selamat munas warna mu semakin nampak namun tetaplah rendah hati dalam memaksimalkan usaha membantu masyarakat</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['meluruskan', 'arah', 'bangsa', 'dgn', 'wasathiyyatul', 'islam', 'pancasila', 'dan', 'uud', 'secara', 'murni', 'dan', 'konsekwen', 'ahmad']</t>
+          <t>['rt', 'selamat', 'munas', 'warna', 'mu', 'semakin', 'nampak', 'namun', 'tetaplah', 'rendah', 'hati', 'dalam', 'memaksimalkan', 'usaha', 'membantu', 'masyarakat']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'musyawarah, nasional', 'warna', 'mu', 'semakin', 'menampak', 'namun', 'tetaplah', 'rendah', 'hati', 'dalam', 'memaksimalkan', 'usaha', 'membantu', 'masyarakat']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['meluruskan', 'arah', 'bangsa', 'wasathiyyatul', 'islam', 'pancasila', 'uud', 'murni', 'konsekwen', 'ahmad']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['lurus', 'arah', 'bangsa', 'wasathiyyatul', 'islam', 'pancasila', 'uud', 'murni', 'konsekwen', 'ahmad']</t>
+          <t>['selamat', 'musyawarah, nasional', 'warna', 'mu', 'menampak', 'tetaplah', 'rendah', 'hati', 'memaksimalkan', 'usaha', 'membantu', 'masyarakat']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['selamat', 'musyawarah nasional', 'warna', 'mu', 'tampak', 'tetap', 'rendah', 'hati', 'maksimal', 'usaha', 'bantu', 'masyarakat']</t>
         </is>
       </c>
     </row>
@@ -1335,34 +1460,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15475</v>
+        <v>26242</v>
       </c>
       <c r="C26" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>di munas ini saya mendapat kesempatan menjadi salah satu peserta</t>
+          <t>meluruskan arah bangsa dgn wasathiyyatul islam pancasila dan uud secara murni dan konsekwen ahmad</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['di', 'munas', 'ini', 'saya', 'mendapat', 'kesempatan', 'menjadi', 'salah', 'satu', 'peserta']</t>
+          <t>['meluruskan', 'arah', 'bangsa', 'dgn', 'wasathiyyatul', 'islam', 'pancasila', 'dan', 'uud', 'secara', 'murni', 'dan', 'konsekwen', 'ahmad']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['meluruskan', 'arah', 'bangsa', 'dengan', 'wasathiyyatul', 'islam', 'pancasila', 'dan', 'undang, undang, dasar', 'secara', 'murni', 'dan', 'konsekwen', 'ahmad']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['munas', 'kesempatan', 'salah', 'peserta']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['munas', 'sempat', 'salah', 'serta']</t>
+          <t>['meluruskan', 'arah', 'bangsa', 'wasathiyyatul', 'islam', 'pancasila', 'undang, undang, dasar', 'murni', 'konsekwen', 'ahmad']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['lurus', 'arah', 'bangsa', 'wasathiyyatul', 'islam', 'pancasila', 'undang undang dasar', 'murni', 'konsekwen', 'ahmad']</t>
         </is>
       </c>
     </row>
@@ -1371,34 +1501,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15476</v>
+        <v>26243</v>
       </c>
       <c r="C27" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>wapres yang juga ketum mui sdg memberi sambutan munas sangat strategis utk menyegarkan kepengurusan dan strategis</t>
+          <t>di munas ini saya mendapat kesempatan menjadi salah satu peserta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['wapres', 'yang', 'juga', 'ketum', 'mui', 'sdg', 'memberi', 'sambutan', 'munas', 'sangat', 'strategis', 'utk', 'menyegarkan', 'kepengurusan', 'dan', 'strategis']</t>
+          <t>['di', 'munas', 'ini', 'saya', 'mendapat', 'kesempatan', 'menjadi', 'salah', 'satu', 'peserta']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['di', 'musyawarah, nasional', 'ini', 'saya', 'mendapat', 'kesempatan', 'menjadi', 'salah', 'satu', 'peserta']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['wapres', 'ketum', 'mui', 'sdg', 'sambutan', 'munas', 'strategis', 'menyegarkan', 'kepengurusan', 'strategis']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['wapres', 'tum', 'mui', 'sdg', 'sambut', 'munas', 'strategis', 'segar', 'urus', 'strategis']</t>
+          <t>['musyawarah, nasional', 'kesempatan', 'salah', 'peserta']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['musyawarah nasional', 'sempat', 'salah', 'serta']</t>
         </is>
       </c>
     </row>
@@ -1407,34 +1542,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15477</v>
+        <v>26244</v>
       </c>
       <c r="C28" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>acara munas mui dilaksanakan dgn prokws yang ketat semua peserta harus membawa bukti swab negatif  dilaksanaka</t>
+          <t>wapres yang juga ketum mui sdg memberi sambutan munas sangat strategis utk menyegarkan kepengurusan dan strategis</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['acara', 'munas', 'mui', 'dilaksanakan', 'dgn', 'prokws', 'yang', 'ketat', 'semua', 'peserta', 'harus', 'membawa', 'bukti', 'swab', 'negatif', 'dilaksanaka']</t>
+          <t>['wapres', 'yang', 'juga', 'ketum', 'mui', 'sdg', 'memberi', 'sambutan', 'munas', 'sangat', 'strategis', 'utk', 'menyegarkan', 'kepengurusan', 'dan', 'strategis']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['wakil, presiden', 'yang', 'juga', 'ketua, umum', 'majelis, ulama, indonesia', 'sedang', 'memberi', 'sambutan', 'musyawarah, nasional', 'sangat', 'strategis', 'untuk', 'menyegarkan', 'kepengurusan', 'dan', 'strategis']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['acara', 'munas', 'mui', 'dilaksanakan', 'prokws', 'ketat', 'peserta', 'membawa', 'bukti', 'swab', 'negatif', 'dilaksanaka']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['acara', 'munas', 'mui', 'laksana', 'prokws', 'ketat', 'serta', 'bawa', 'bukti', 'swab', 'negatif', 'dilaksanaka']</t>
+          <t>['wakil, presiden', 'ketua, umum', 'majelis, ulama, indonesia', 'sambutan', 'musyawarah, nasional', 'strategis', 'menyegarkan', 'kepengurusan', 'strategis']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['wakil presiden', 'ketua umum', 'majelis ulama indonesia', 'sambut', 'musyawarah nasional', 'strategis', 'segar', 'urus', 'strategis']</t>
         </is>
       </c>
     </row>
@@ -1443,34 +1583,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15478</v>
+        <v>26245</v>
       </c>
       <c r="C29" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>rt di kota bandung pks memperoleh kursi dprd dan memegang jabatan ketua figur kader muda dan bersih semoga tetap amana</t>
+          <t>acara munas mui dilaksanakan dgn prokws yang ketat semua peserta harus membawa bukti swab negatif  dilaksanaka</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['rt', 'di', 'kota', 'bandung', 'pks', 'memperoleh', 'kursi', 'dprd', 'dan', 'memegang', 'jabatan', 'ketua', 'figur', 'kader', 'muda', 'dan', 'bersih', 'semoga', 'tetap', 'amana']</t>
+          <t>['acara', 'munas', 'mui', 'dilaksanakan', 'dgn', 'prokws', 'yang', 'ketat', 'semua', 'peserta', 'harus', 'membawa', 'bukti', 'swab', 'negatif', 'dilaksanaka']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['acara', 'musyawarah, nasional', 'majelis, ulama, indonesia', 'dilaksanakan', 'dengan', 'prokws', 'yang', 'ketat', 'semua', 'peserta', 'harus', 'membawa', 'bukti', 'swab', 'negatif', 'dilaksanaka']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['kota', 'bandung', 'pks', 'memperoleh', 'kursi', 'dprd', 'memegang', 'jabatan', 'ketua', 'figur', 'kader', 'muda', 'bersih', 'semoga', 'amana']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['kota', 'bandung', 'pks', 'oleh', 'kursi', 'dprd', 'pegang', 'jabat', 'ketua', 'figur', 'kader', 'muda', 'bersih', 'moga', 'amana']</t>
+          <t>['acara', 'musyawarah, nasional', 'majelis, ulama, indonesia', 'dilaksanakan', 'prokws', 'ketat', 'peserta', 'membawa', 'bukti', 'swab', 'negatif', 'dilaksanaka']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['acara', 'musyawarah nasional', 'majelis ulama indonesia', 'laksana', 'prokws', 'ketat', 'serta', 'bawa', 'bukti', 'swab', 'negatif', 'dilaksanaka']</t>
         </is>
       </c>
     </row>
@@ -1479,34 +1624,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15479</v>
+        <v>26246</v>
       </c>
       <c r="C30" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>saat ini sdg berlangsung munas mui  dihadiri presiden secara virtual dihadiri juga wapres kh maruf amin se</t>
+          <t>rt di kota bandung pks memperoleh kursi dprd dan memegang jabatan ketua figur kader muda dan bersih semoga tetap amana</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['saat', 'ini', 'sdg', 'berlangsung', 'munas', 'mui', 'dihadiri', 'presiden', 'secara', 'virtual', 'dihadiri', 'juga', 'wapres', 'kh', 'maruf', 'amin', 'se']</t>
+          <t>['rt', 'di', 'kota', 'bandung', 'pks', 'memperoleh', 'kursi', 'dprd', 'dan', 'memegang', 'jabatan', 'ketua', 'figur', 'kader', 'muda', 'dan', 'bersih', 'semoga', 'tetap', 'amana']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'di', 'kota', 'bandung', 'partai, keadilan, sejahtera', 'memperoleh', 'kursi', 'dewan, perwakilan, rakyat, daerah', 'dan', 'memegang', 'jabatan', 'ketua', 'figur', 'kader', 'muda', 'dan', 'bersih', 'semoga', 'tetap', 'amana']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['sdg', 'munas', 'mui', 'dihadiri', 'presiden', 'virtual', 'dihadiri', 'wapres', 'kh', 'maruf', 'amin']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['sdg', 'munas', 'mui', 'hadir', 'presiden', 'virtual', 'hadir', 'wapres', 'kh', 'maruf', 'amin']</t>
+          <t>['kota', 'bandung', 'partai, keadilan, sejahtera', 'memperoleh', 'kursi', 'dewan, perwakilan, rakyat, daerah', 'memegang', 'jabatan', 'ketua', 'figur', 'kader', 'muda', 'bersih', 'semoga', 'amana']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['kota', 'bandung', 'partai adil sejahtera', 'oleh', 'kursi', 'dewan wakil rakyat daerah', 'pegang', 'jabat', 'ketua', 'figur', 'kader', 'muda', 'bersih', 'moga', 'amana']</t>
         </is>
       </c>
     </row>
@@ -1515,34 +1665,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15480</v>
+        <v>26247</v>
       </c>
       <c r="C31" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>amiin ya robb ya robb ya robbampuni ibu bapak kami spt mereka mencintai kami dgn tulus</t>
+          <t>saat ini sdg berlangsung munas mui  dihadiri presiden secara virtual dihadiri juga wapres kh maruf amin se</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['amiin', 'ya', 'robb', 'ya', 'robb', 'ya', 'robbampuni', 'ibu', 'bapak', 'kami', 'spt', 'mereka', 'mencintai', 'kami', 'dgn', 'tulus']</t>
+          <t>['saat', 'ini', 'sdg', 'berlangsung', 'munas', 'mui', 'dihadiri', 'presiden', 'secara', 'virtual', 'dihadiri', 'juga', 'wapres', 'kh', 'maruf', 'amin', 'se']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
+          <t>['saat', 'ini', 'sedang', 'berlangsung', 'musyawarah, nasional', 'majelis, ulama, indonesia', 'dihadiri', 'presiden', 'secara', 'virtual', 'dihadiri', 'juga', 'wakil, presiden', 'kh', 'maruf', 'amin', 'se']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['amiin', 'robb', 'robb', 'robbampuni', 'spt', 'mencintai', 'tulus']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['amiin', 'robb', 'robb', 'robbampuni', 'spt', 'cinta', 'tulus']</t>
+          <t>['musyawarah, nasional', 'majelis, ulama, indonesia', 'dihadiri', 'presiden', 'virtual', 'dihadiri', 'wakil, presiden', 'kh', 'maruf', 'amin']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['musyawarah nasional', 'majelis ulama indonesia', 'hadir', 'presiden', 'virtual', 'hadir', 'wakil presiden', 'kh', 'maruf', 'amin']</t>
         </is>
       </c>
     </row>
@@ -1551,34 +1706,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15481</v>
+        <v>26248</v>
       </c>
       <c r="C32" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>amiin ya robb ya robb ya robbampuni ibu bapak kami spt mereka mencintai kami dgn tulus</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['amiin', 'ya', 'robb', 'ya', 'robb', 'ya', 'robbampuni', 'ibu', 'bapak', 'kami', 'spt', 'mereka', 'mencintai', 'kami', 'dgn', 'tulus']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['amin', 'ya', 'allah', 'ya', 'allah', 'ya', 'robbampuni', 'ibu', 'bapak', 'kami', 'surat, pemberitahuan, tahunan', 'mereka', 'mencintai', 'kami', 'dengan', 'tulus']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['amin', 'allah', 'allah', 'robbampuni', 'surat, pemberitahuan, tahunan', 'mencintai', 'tulus']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['amin', 'allah', 'allah', 'robbampuni', 'surat pemberitahuan tahun', 'cinta', 'tulus']</t>
         </is>
       </c>
     </row>
@@ -1587,34 +1747,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15482</v>
+        <v>26249</v>
       </c>
       <c r="C33" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>rt rilis resmi kedubes perancis di jakarta tidak fair dan standar ganda gak boleh donk negara tsb membalas tindakan pemengga</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['rt', 'rilis', 'resmi', 'kedubes', 'perancis', 'di', 'jakarta', 'tidak', 'fair', 'dan', 'standar', 'ganda', 'gak', 'boleh', 'donk', 'negara', 'tsb', 'membalas', 'tindakan', 'pemengga']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['rilis', 'resmi', 'kedubes', 'perancis', 'jakarta', 'fair', 'standar', 'ganda', 'donk', 'negara', 'tsb', 'membalas', 'tindakan', 'pemengga']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['rilis', 'resmi', 'dubes', 'perancis', 'jakarta', 'fair', 'standar', 'ganda', 'donk', 'negara', 'tsb', 'balas', 'tindak', 'mengga']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1623,34 +1788,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15483</v>
+        <v>26250</v>
       </c>
       <c r="C34" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>rt rasulullah saw bersabda tiada seseorang beriman hingga aku lebih dicintai dari ayahnya anaknya dan seluruh manusia</t>
+          <t>rt rilis resmi kedubes perancis di jakarta tidak fair dan standar ganda gak boleh donk negara tsb membalas tindakan pemengga</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['rt', 'rasulullah', 'saw', 'bersabda', 'tiada', 'seseorang', 'beriman', 'hingga', 'aku', 'lebih', 'dicintai', 'dari', 'ayahnya', 'anaknya', 'dan', 'seluruh', 'manusia']</t>
+          <t>['rt', 'rilis', 'resmi', 'kedubes', 'perancis', 'di', 'jakarta', 'tidak', 'fair', 'dan', 'standar', 'ganda', 'gak', 'boleh', 'donk', 'negara', 'tsb', 'membalas', 'tindakan', 'pemengga']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'rilis', 'resmi', 'kedutaan, besar', 'prancis', 'di', 'jakarta', 'tidak', 'fair', 'dan', 'standar', 'ganda', 'tidak', 'boleh', 'dong', 'negara', 'tersebut', 'membalas', 'tindakan', 'pemengga']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['rasulullah', 'saw', 'bersabda', 'tiada', 'beriman', 'dicintai', 'ayahnya', 'anaknya', 'manusia']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['rasulullah', 'saw', 'sabda', 'tiada', 'iman', 'cinta', 'ayah', 'anak', 'manusia']</t>
+          <t>['rilis', 'resmi', 'kedutaan, besar', 'prancis', 'jakarta', 'fair', 'standar', 'ganda', 'negara', 'membalas', 'tindakan', 'pemengga']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['rilis', 'resmi', 'duta besar', 'prancis', 'jakarta', 'fair', 'standar', 'ganda', 'negara', 'balas', 'tindak', 'mengga']</t>
         </is>
       </c>
     </row>
@@ -1659,34 +1829,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15484</v>
+        <v>26251</v>
       </c>
       <c r="C35" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>sangat tidak masuk akal seorang presiden menghina nabi yang mulia muhammad saw atas nama kebebasan berekspresila</t>
+          <t>rt rasulullah saw bersabda tiada seseorang beriman hingga aku lebih dicintai dari ayahnya anaknya dan seluruh manusia</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['sangat', 'tidak', 'masuk', 'akal', 'seorang', 'presiden', 'menghina', 'nabi', 'yang', 'mulia', 'muhammad', 'saw', 'atas', 'nama', 'kebebasan', 'berekspresila']</t>
+          <t>['rt', 'rasulullah', 'saw', 'bersabda', 'tiada', 'seseorang', 'beriman', 'hingga', 'aku', 'lebih', 'dicintai', 'dari', 'ayahnya', 'anaknya', 'dan', 'seluruh', 'manusia']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'rasulullah', 'saw', 'bersabda', 'tiada', 'seseorang', 'beriman', 'hingga', 'aku', 'lebih', 'dicintai', 'dari', 'ayahnya', 'anaknya', 'dan', 'seluruh', 'manusia']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['masuk', 'akal', 'presiden', 'menghina', 'nabi', 'mulia', 'muhammad', 'saw', 'nama', 'kebebasan', 'berekspresila']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['masuk', 'akal', 'presiden', 'hina', 'nabi', 'mulia', 'muhammad', 'saw', 'nama', 'bebas', 'berekspresila']</t>
+          <t>['rasulullah', 'saw', 'bersabda', 'tiada', 'beriman', 'dicintai', 'ayahnya', 'anaknya', 'manusia']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['rasulullah', 'saw', 'sabda', 'tiada', 'iman', 'cinta', 'ayah', 'anak', 'manusia']</t>
         </is>
       </c>
     </row>
@@ -1695,34 +1870,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15485</v>
+        <v>26252</v>
       </c>
       <c r="C36" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>rt heryawan wilujeung tepang taun kota bandung ka</t>
+          <t>sangat tidak masuk akal seorang presiden menghina nabi yang mulia muhammad saw atas nama kebebasan berekspresila</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['rt', 'heryawan', 'wilujeung', 'tepang', 'taun', 'kota', 'bandung', 'ka']</t>
+          <t>['sangat', 'tidak', 'masuk', 'akal', 'seorang', 'presiden', 'menghina', 'nabi', 'yang', 'mulia', 'muhammad', 'saw', 'atas', 'nama', 'kebebasan', 'berekspresila']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['sangat', 'tidak', 'masuk', 'akal', 'seorang', 'presiden', 'menghina', 'nabi', 'yang', 'mulia', 'muhammad', 'saw', 'atas', 'nama', 'kebebasan', 'berekspresila']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['heryawan', 'wilujeung', 'tepang', 'taun', 'kota', 'bandung', 'ka']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['heryawan', 'wilujeung', 'tepang', 'taun', 'kota', 'bandung', 'ka']</t>
+          <t>['masuk', 'akal', 'presiden', 'menghina', 'nabi', 'mulia', 'muhammad', 'saw', 'nama', 'kebebasan', 'berekspresila']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['masuk', 'akal', 'presiden', 'hina', 'nabi', 'mulia', 'muhammad', 'saw', 'nama', 'bebas', 'berekspresila']</t>
         </is>
       </c>
     </row>
@@ -1731,34 +1911,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15486</v>
+        <v>26253</v>
       </c>
       <c r="C37" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>astaghfirullahal adzim wa natunubilaihi mari banyak beristighfar utk kebaikan bangsa dan negri kita</t>
+          <t>rt heryawan wilujeung tepang taun kota bandung ka</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['astaghfirullahal', 'adzim', 'wa', 'natunubilaihi', 'mari', 'banyak', 'beristighfar', 'utk', 'kebaikan', 'bangsa', 'dan', 'negri', 'kita']</t>
+          <t>['rt', 'heryawan', 'wilujeung', 'tepang', 'taun', 'kota', 'bandung', 'ka']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'heryawan', 'wilujeung', 'tepang', 'tahun', 'kota', 'bandung', 'kakak']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['astaghfirullahal', 'adzim', 'wa', 'natunubilaihi', 'mari', 'beristighfar', 'kebaikan', 'bangsa', 'negri']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['astaghfirullahal', 'adzim', 'wa', 'natunubilaihi', 'mari', 'beristighfar', 'baik', 'bangsa', 'negri']</t>
+          <t>['heryawan', 'wilujeung', 'tepang', 'kota', 'bandung', 'kakak']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['heryawan', 'wilujeung', 'tepang', 'kota', 'bandung', 'kakak']</t>
         </is>
       </c>
     </row>
@@ -1767,34 +1952,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15487</v>
+        <v>26254</v>
       </c>
       <c r="C38" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>rt sangat berdukacita atas gugurnya dokter yg tercatat wafat akibat covid mrk ada yg gurubesar spesialislangka ju</t>
+          <t>astaghfirullahal adzim wa natunubilaihi mari banyak beristighfar utk kebaikan bangsa dan negri kita</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['rt', 'sangat', 'berdukacita', 'atas', 'gugurnya', 'dokter', 'yg', 'tercatat', 'wafat', 'akibat', 'covid', 'mrk', 'ada', 'yg', 'gurubesar', 'spesialislangka', 'ju']</t>
+          <t>['astaghfirullahal', 'adzim', 'wa', 'natunubilaihi', 'mari', 'banyak', 'beristighfar', 'utk', 'kebaikan', 'bangsa', 'dan', 'negri', 'kita']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['astaghfirullahal', 'azim', 'wa', 'natunubilaihi', 'mari', 'banyak', 'beristighfar', 'untuk', 'kebaikan', 'bangsa', 'dan', 'negeri', 'kita']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['berdukacita', 'gugurnya', 'dokter', 'tercatat', 'wafat', 'akibat', 'covid', 'mrk', 'gurubesar', 'spesialislangka', 'ju']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['dukacita', 'gugur', 'dokter', 'catat', 'wafat', 'akibat', 'covid', 'mrk', 'gurubesar', 'spesialislangka', 'ju']</t>
+          <t>['astaghfirullahal', 'azim', 'wa', 'natunubilaihi', 'mari', 'beristighfar', 'kebaikan', 'bangsa', 'negeri']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['astaghfirullahal', 'azim', 'wa', 'natunubilaihi', 'mari', 'beristighfar', 'baik', 'bangsa', 'negeri']</t>
         </is>
       </c>
     </row>
@@ -1803,34 +1993,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15488</v>
+        <v>26255</v>
       </c>
       <c r="C39" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>rt bersyukur saudi arabia tdk akan ikut langkah uea penjajahan istael atas palestina harus dihapuskan termasuk amanat uud</t>
+          <t>rt sangat berdukacita atas gugurnya dokter yg tercatat wafat akibat covid mrk ada yg gurubesar spesialislangka ju</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['rt', 'bersyukur', 'saudi', 'arabia', 'tdk', 'akan', 'ikut', 'langkah', 'uea', 'penjajahan', 'istael', 'atas', 'palestina', 'harus', 'dihapuskan', 'termasuk', 'amanat', 'uud']</t>
+          <t>['rt', 'sangat', 'berdukacita', 'atas', 'gugurnya', 'dokter', 'yg', 'tercatat', 'wafat', 'akibat', 'covid', 'mrk', 'ada', 'yg', 'gurubesar', 'spesialislangka', 'ju']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'sangat', 'berdukacita', 'atas', 'gugurnya', 'dokter', 'yang', 'tercatat', 'wafat', 'akibat', 'covid', 'mereka', 'ada', 'yang', 'gurubesar', 'spesialislangka', 'ju']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['bersyukur', 'saudi', 'arabia', 'langkah', 'uea', 'penjajahan', 'istael', 'palestina', 'dihapuskan', 'amanat', 'uud']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['syukur', 'saudi', 'arabia', 'langkah', 'uea', 'jajah', 'istael', 'palestina', 'hapus', 'amanat', 'uud']</t>
+          <t>['berdukacita', 'gugurnya', 'dokter', 'tercatat', 'wafat', 'akibat', 'covid', 'gurubesar', 'spesialislangka', 'ju']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['dukacita', 'gugur', 'dokter', 'catat', 'wafat', 'akibat', 'covid', 'gurubesar', 'spesialislangka', 'ju']</t>
         </is>
       </c>
     </row>
@@ -1839,34 +2034,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15489</v>
+        <v>26256</v>
       </c>
       <c r="C40" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>rt suspen seharusnya jadi momentum utk akurasi data kependudukan dan satu data kependudukan statistics</t>
+          <t>rt bersyukur saudi arabia tdk akan ikut langkah uea penjajahan istael atas palestina harus dihapuskan termasuk amanat uud</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['rt', 'suspen', 'seharusnya', 'jadi', 'momentum', 'utk', 'akurasi', 'data', 'kependudukan', 'dan', 'satu', 'data', 'kependudukan', 'statistics']</t>
+          <t>['rt', 'bersyukur', 'saudi', 'arabia', 'tdk', 'akan', 'ikut', 'langkah', 'uea', 'penjajahan', 'istael', 'atas', 'palestina', 'harus', 'dihapuskan', 'termasuk', 'amanat', 'uud']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'bersyukur', 'saudi', 'arabia', 'tidak', 'akan', 'ikut', 'langkah', 'uea', 'penjajahan', 'istael', 'atas', 'palestina', 'harus', 'dihapuskan', 'termasuk', 'amanat', 'undang, undang, dasar']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['suspen', 'momentum', 'akurasi', 'data', 'kependudukan', 'data', 'kependudukan', 'statistics']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['suspen', 'momentum', 'akurasi', 'data', 'duduk', 'data', 'duduk', 'statistics']</t>
+          <t>['bersyukur', 'saudi', 'arabia', 'langkah', 'uea', 'penjajahan', 'istael', 'palestina', 'dihapuskan', 'amanat', 'undang, undang, dasar']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['syukur', 'saudi', 'arabia', 'langkah', 'uea', 'jajah', 'istael', 'palestina', 'hapus', 'amanat', 'undang undang dasar']</t>
         </is>
       </c>
     </row>
@@ -1875,34 +2075,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15490</v>
+        <v>26257</v>
       </c>
       <c r="C41" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>rt heryawan terima kasih para pemimpin jawa barat terdahulu yang telah meletakkan pondasi bagi pembangunan berkelanjutan mengantar</t>
+          <t>rt suspen seharusnya jadi momentum utk akurasi data kependudukan dan satu data kependudukan statistics</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['rt', 'heryawan', 'terima', 'kasih', 'para', 'pemimpin', 'jawa', 'barat', 'terdahulu', 'yang', 'telah', 'meletakkan', 'pondasi', 'bagi', 'pembangunan', 'berkelanjutan', 'mengantar']</t>
+          <t>['rt', 'suspen', 'seharusnya', 'jadi', 'momentum', 'utk', 'akurasi', 'data', 'kependudukan', 'dan', 'satu', 'data', 'kependudukan', 'statistics']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'suspen', 'seharusnya', 'jadi', 'momentum', 'untuk', 'akurasi', 'data', 'kependudukan', 'dan', 'satu', 'data', 'kependudukan', 'statistics']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['heryawan', 'terima', 'kasih', 'pemimpin', 'jawa', 'barat', 'meletakkan', 'pondasi', 'pembangunan', 'berkelanjutan', 'mengantar']</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['heryawan', 'terima', 'kasih', 'pimpin', 'jawa', 'barat', 'letak', 'pondasi', 'bangun', 'lanjut', 'antar']</t>
+          <t>['suspen', 'momentum', 'akurasi', 'data', 'kependudukan', 'data', 'kependudukan', 'statistics']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['suspen', 'momentum', 'akurasi', 'data', 'duduk', 'data', 'duduk', 'statistics']</t>
         </is>
       </c>
     </row>
@@ -1911,34 +2116,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15491</v>
+        <v>26258</v>
       </c>
       <c r="C42" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>rt heryawan hana nguni hana mangke tan hana nguni tan hana mangke aya ma baheula aya tu ayeuna henteu ma baheula henteu tu ayeu</t>
+          <t>rt heryawan terima kasih para pemimpin jawa barat terdahulu yang telah meletakkan pondasi bagi pembangunan berkelanjutan mengantar</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['rt', 'heryawan', 'hana', 'nguni', 'hana', 'mangke', 'tan', 'hana', 'nguni', 'tan', 'hana', 'mangke', 'aya', 'ma', 'baheula', 'aya', 'tu', 'ayeuna', 'henteu', 'ma', 'baheula', 'henteu', 'tu', 'ayeu']</t>
+          <t>['rt', 'heryawan', 'terima', 'kasih', 'para', 'pemimpin', 'jawa', 'barat', 'terdahulu', 'yang', 'telah', 'meletakkan', 'pondasi', 'bagi', 'pembangunan', 'berkelanjutan', 'mengantar']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 24 outcomes&gt;</t>
+          <t>['rt', 'heryawan', 'terima', 'kasih', 'para', 'pemimpin', 'jawa', 'barat', 'terdahulu', 'yang', 'telah', 'meletakkan', 'pondasi', 'bagi', 'pembangunan', 'berkelanjutan', 'mengantar']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['heryawan', 'hana', 'nguni', 'hana', 'mangke', 'tan', 'hana', 'nguni', 'tan', 'hana', 'mangke', 'aya', 'ma', 'baheula', 'aya', 'tu', 'ayeuna', 'henteu', 'ma', 'baheula', 'henteu', 'tu', 'ayeu']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['heryawan', 'hana', 'nguni', 'hana', 'mangke', 'tan', 'hana', 'nguni', 'tan', 'hana', 'mangke', 'aya', 'ma', 'baheula', 'aya', 'tu', 'ayeuna', 'henteu', 'ma', 'baheula', 'henteu', 'tu', 'ayeu']</t>
+          <t>['heryawan', 'terima', 'kasih', 'pemimpin', 'jawa', 'barat', 'meletakkan', 'pondasi', 'pembangunan', 'berkelanjutan', 'mengantar']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['heryawan', 'terima', 'kasih', 'pimpin', 'jawa', 'barat', 'letak', 'pondasi', 'bangun', 'lanjut', 'antar']</t>
         </is>
       </c>
     </row>
@@ -1947,34 +2157,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15492</v>
+        <v>26259</v>
       </c>
       <c r="C43" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt subhanalloh semoga saudara kita mendapatkan sorga tertinggi apaaa yang terasa dan terpikir oleh sahabatku sekaliaaaan </t>
+          <t>rt heryawan hana nguni hana mangke tan hana nguni tan hana mangke aya ma baheula aya tu ayeuna henteu ma baheula henteu tu ayeu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['rt', 'subhanalloh', 'semoga', 'saudara', 'kita', 'mendapatkan', 'sorga', 'tertinggi', 'apaaa', 'yang', 'terasa', 'dan', 'terpikir', 'oleh', 'sahabatku', 'sekaliaaaan']</t>
+          <t>['rt', 'heryawan', 'hana', 'nguni', 'hana', 'mangke', 'tan', 'hana', 'nguni', 'tan', 'hana', 'mangke', 'aya', 'ma', 'baheula', 'aya', 'tu', 'ayeuna', 'henteu', 'ma', 'baheula', 'henteu', 'tu', 'ayeu']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'heryawan', 'hana', 'nguni', 'hana', 'mangke', 'tan', 'hana', 'nguni', 'tan', 'hana', 'mangke', 'ada', 'sama', 'baheula', 'ada', 'itu', 'ayeuna', 'henteu', 'sama', 'baheula', 'henteu', 'itu', 'ayeu']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['subhanalloh', 'semoga', 'saudara', 'sorga', 'tertinggi', 'apaaa', 'terpikir', 'sahabatku', 'sekaliaaaan']</t>
+          <t>&lt;FreqDist with 13 samples and 24 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['subhanalloh', 'moga', 'saudara', 'sorga', 'tinggi', 'apaaa', 'pikir', 'sahabat', 'sekaliaaaan']</t>
+          <t>['heryawan', 'hana', 'nguni', 'hana', 'mangke', 'tan', 'hana', 'nguni', 'tan', 'hana', 'mangke', 'baheula', 'ayeuna', 'henteu', 'baheula', 'henteu', 'ayeu']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['heryawan', 'hana', 'nguni', 'hana', 'mangke', 'tan', 'hana', 'nguni', 'tan', 'hana', 'mangke', 'baheula', 'ayeuna', 'henteu', 'baheula', 'henteu', 'ayeu']</t>
         </is>
       </c>
     </row>
@@ -1983,34 +2198,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15493</v>
+        <v>26260</v>
       </c>
       <c r="C44" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>flm flm pendek yang layak ditonton neehmariii</t>
+          <t xml:space="preserve">rt subhanalloh semoga saudara kita mendapatkan sorga tertinggi apaaa yang terasa dan terpikir oleh sahabatku sekaliaaaan </t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['flm', 'flm', 'pendek', 'yang', 'layak', 'ditonton', 'neehmariii']</t>
+          <t>['rt', 'subhanalloh', 'semoga', 'saudara', 'kita', 'mendapatkan', 'sorga', 'tertinggi', 'apaaa', 'yang', 'terasa', 'dan', 'terpikir', 'oleh', 'sahabatku', 'sekaliaaaan']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'subhanallah', 'semoga', 'saudara', 'kita', 'mendapatkan', 'sorga', 'tertinggi', 'apa', 'yang', 'terasa', 'dan', 'terpikir', 'oleh', 'sahabatku', 'sekaliaaaan']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['flm', 'flm', 'pendek', 'layak', 'ditonton', 'neehmariii']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['flm', 'flm', 'pendek', 'layak', 'tonton', 'neehmariii']</t>
+          <t>['subhanallah', 'semoga', 'saudara', 'sorga', 'tertinggi', 'terpikir', 'sahabatku', 'sekaliaaaan']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['subhanallah', 'moga', 'saudara', 'sorga', 'tinggi', 'pikir', 'sahabat', 'sekaliaaaan']</t>
         </is>
       </c>
     </row>
@@ -2019,34 +2239,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15494</v>
+        <v>26261</v>
       </c>
       <c r="C45" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>suspen seharusnya jadi momentum utk akurasi data kependudukan dan satu data kependudukan</t>
+          <t>flm flm pendek yang layak ditonton neehmariii</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['suspen', 'seharusnya', 'jadi', 'momentum', 'utk', 'akurasi', 'data', 'kependudukan', 'dan', 'satu', 'data', 'kependudukan']</t>
+          <t>['flm', 'flm', 'pendek', 'yang', 'layak', 'ditonton', 'neehmariii']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
+          <t>['film', 'film', 'pendek', 'yang', 'layak', 'ditonton', 'neehmariii']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['suspen', 'momentum', 'akurasi', 'data', 'kependudukan', 'data', 'kependudukan']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['suspen', 'momentum', 'akurasi', 'data', 'duduk', 'data', 'duduk']</t>
+          <t>['film', 'film', 'pendek', 'layak', 'ditonton', 'neehmariii']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['film', 'film', 'pendek', 'layak', 'tonton', 'neehmariii']</t>
         </is>
       </c>
     </row>
@@ -2055,34 +2280,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15495</v>
+        <v>26262</v>
       </c>
       <c r="C46" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>bersyukur saudi arabia tdk akan ikut langkah uea penjajahan istael atas palestina harus dihapuskan termasuk amanat</t>
+          <t>suspen seharusnya jadi momentum utk akurasi data kependudukan dan satu data kependudukan</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['bersyukur', 'saudi', 'arabia', 'tdk', 'akan', 'ikut', 'langkah', 'uea', 'penjajahan', 'istael', 'atas', 'palestina', 'harus', 'dihapuskan', 'termasuk', 'amanat']</t>
+          <t>['suspen', 'seharusnya', 'jadi', 'momentum', 'utk', 'akurasi', 'data', 'kependudukan', 'dan', 'satu', 'data', 'kependudukan']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['suspen', 'seharusnya', 'jadi', 'momentum', 'untuk', 'akurasi', 'data', 'kependudukan', 'dan', 'satu', 'data', 'kependudukan']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['bersyukur', 'saudi', 'arabia', 'langkah', 'uea', 'penjajahan', 'istael', 'palestina', 'dihapuskan', 'amanat']</t>
+          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['syukur', 'saudi', 'arabia', 'langkah', 'uea', 'jajah', 'istael', 'palestina', 'hapus', 'amanat']</t>
+          <t>['suspen', 'momentum', 'akurasi', 'data', 'kependudukan', 'data', 'kependudukan']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['suspen', 'momentum', 'akurasi', 'data', 'duduk', 'data', 'duduk']</t>
         </is>
       </c>
     </row>
@@ -2091,34 +2321,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15496</v>
+        <v>26263</v>
       </c>
       <c r="C47" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>kemudian khusus saat ini kita juga meminta semoga allah segera mencabut pandemi covid ini dari muka bumi membua</t>
+          <t>bersyukur saudi arabia tdk akan ikut langkah uea penjajahan istael atas palestina harus dihapuskan termasuk amanat</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['kemudian', 'khusus', 'saat', 'ini', 'kita', 'juga', 'meminta', 'semoga', 'allah', 'segera', 'mencabut', 'pandemi', 'covid', 'ini', 'dari', 'muka', 'bumi', 'membua']</t>
+          <t>['bersyukur', 'saudi', 'arabia', 'tdk', 'akan', 'ikut', 'langkah', 'uea', 'penjajahan', 'istael', 'atas', 'palestina', 'harus', 'dihapuskan', 'termasuk', 'amanat']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['bersyukur', 'saudi', 'arabia', 'tidak', 'akan', 'ikut', 'langkah', 'uea', 'penjajahan', 'istael', 'atas', 'palestina', 'harus', 'dihapuskan', 'termasuk', 'amanat']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['khusus', 'semoga', 'allah', 'mencabut', 'pandemi', 'covid', 'muka', 'bumi', 'membua']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['khusus', 'moga', 'allah', 'cabut', 'pandemi', 'covid', 'muka', 'bumi', 'bua']</t>
+          <t>['bersyukur', 'saudi', 'arabia', 'langkah', 'uea', 'penjajahan', 'istael', 'palestina', 'dihapuskan', 'amanat']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['syukur', 'saudi', 'arabia', 'langkah', 'uea', 'jajah', 'istael', 'palestina', 'hapus', 'amanat']</t>
         </is>
       </c>
     </row>
@@ -2127,34 +2362,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15497</v>
+        <v>26264</v>
       </c>
       <c r="C48" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>tak lupa juga kita panjatkan doa sepenuh hati semoga sepanjang tahun ini kita selalu dalam kebaikan dalam penjaga</t>
+          <t>kemudian khusus saat ini kita juga meminta semoga allah segera mencabut pandemi covid ini dari muka bumi membua</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['tak', 'lupa', 'juga', 'kita', 'panjatkan', 'doa', 'sepenuh', 'hati', 'semoga', 'sepanjang', 'tahun', 'ini', 'kita', 'selalu', 'dalam', 'kebaikan', 'dalam', 'penjaga']</t>
+          <t>['kemudian', 'khusus', 'saat', 'ini', 'kita', 'juga', 'meminta', 'semoga', 'allah', 'segera', 'mencabut', 'pandemi', 'covid', 'ini', 'dari', 'muka', 'bumi', 'membua']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['kemudian', 'khusus', 'saat', 'ini', 'kita', 'juga', 'meminta', 'semoga', 'allah', 'segera', 'mencabut', 'pandemi', 'covid', 'ini', 'dari', 'muka', 'bumi', 'membua']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['lupa', 'panjatkan', 'doa', 'sepenuh', 'hati', 'semoga', 'kebaikan', 'penjaga']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['lupa', 'panjat', 'doa', 'sepenuh', 'hati', 'moga', 'baik', 'jaga']</t>
+          <t>['khusus', 'semoga', 'allah', 'mencabut', 'pandemi', 'covid', 'muka', 'bumi', 'membua']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['khusus', 'moga', 'allah', 'cabut', 'pandemi', 'covid', 'muka', 'bumi', 'bua']</t>
         </is>
       </c>
     </row>
@@ -2163,34 +2403,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15498</v>
+        <v>26265</v>
       </c>
       <c r="C49" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>hari ini saatnya kita azamkan niat perbaikan perbaikan terhadap itu semua dan buat perencanaannya seraya memohon</t>
+          <t>tak lupa juga kita panjatkan doa sepenuh hati semoga sepanjang tahun ini kita selalu dalam kebaikan dalam penjaga</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['hari', 'ini', 'saatnya', 'kita', 'azamkan', 'niat', 'perbaikan', 'perbaikan', 'terhadap', 'itu', 'semua', 'dan', 'buat', 'perencanaannya', 'seraya', 'memohon']</t>
+          <t>['tak', 'lupa', 'juga', 'kita', 'panjatkan', 'doa', 'sepenuh', 'hati', 'semoga', 'sepanjang', 'tahun', 'ini', 'kita', 'selalu', 'dalam', 'kebaikan', 'dalam', 'penjaga']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['tak', 'lupa', 'juga', 'kita', 'panjatkan', 'doa', 'sepenuh', 'hati', 'semoga', 'sepanjang', 'tahun', 'ini', 'kita', 'selalu', 'dalam', 'kebaikan', 'dalam', 'penjaga']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['azamkan', 'niat', 'perbaikan', 'perbaikan', 'perencanaannya', 'seraya', 'memohon']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['azam', 'niat', 'baik', 'baik', 'rencana', 'seraya', 'mohon']</t>
+          <t>['lupa', 'panjatkan', 'doa', 'sepenuh', 'hati', 'semoga', 'kebaikan', 'penjaga']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['lupa', 'panjat', 'doa', 'sepenuh', 'hati', 'moga', 'baik', 'jaga']</t>
         </is>
       </c>
     </row>
@@ -2199,34 +2444,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15499</v>
+        <v>26266</v>
       </c>
       <c r="C50" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>setahun kemarin bagaimana kehidupan kita kesehatan kita pola hidup dan pola makan kita olahraga kita belajar ki</t>
+          <t>hari ini saatnya kita azamkan niat perbaikan perbaikan terhadap itu semua dan buat perencanaannya seraya memohon</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['setahun', 'kemarin', 'bagaimana', 'kehidupan', 'kita', 'kesehatan', 'kita', 'pola', 'hidup', 'dan', 'pola', 'makan', 'kita', 'olahraga', 'kita', 'belajar', 'ki']</t>
+          <t>['hari', 'ini', 'saatnya', 'kita', 'azamkan', 'niat', 'perbaikan', 'perbaikan', 'terhadap', 'itu', 'semua', 'dan', 'buat', 'perencanaannya', 'seraya', 'memohon']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
+          <t>['hari', 'ini', 'saatnya', 'kita', 'azamkan', 'niat', 'perbaikan', 'perbaikan', 'terhadap', 'itu', 'semua', 'dan', 'buat', 'perencanaannya', 'seraya', 'memohon']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['setahun', 'kemarin', 'kehidupan', 'kesehatan', 'pola', 'hidup', 'pola', 'makan', 'olahraga', 'belajar', 'ki']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['tahun', 'kemarin', 'hidup', 'sehat', 'pola', 'hidup', 'pola', 'makan', 'olahraga', 'ajar', 'ki']</t>
+          <t>['azamkan', 'niat', 'perbaikan', 'perbaikan', 'perencanaannya', 'seraya', 'memohon']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['azam', 'niat', 'baik', 'baik', 'rencana', 'seraya', 'mohon']</t>
         </is>
       </c>
     </row>
@@ -2235,34 +2485,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15500</v>
+        <v>26267</v>
       </c>
       <c r="C51" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>diiringi rasa syukur alhamdulillah atas segala karunia yg allah berikan selama ini dan istighfar atas segala kesalahan yang kita lakukan</t>
+          <t>setahun kemarin bagaimana kehidupan kita kesehatan kita pola hidup dan pola makan kita olahraga kita belajar ki</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['diiringi', 'rasa', 'syukur', 'alhamdulillah', 'atas', 'segala', 'karunia', 'yg', 'allah', 'berikan', 'selama', 'ini', 'dan', 'istighfar', 'atas', 'segala', 'kesalahan', 'yang', 'kita', 'lakukan']</t>
+          <t>['setahun', 'kemarin', 'bagaimana', 'kehidupan', 'kita', 'kesehatan', 'kita', 'pola', 'hidup', 'dan', 'pola', 'makan', 'kita', 'olahraga', 'kita', 'belajar', 'ki']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['setahun', 'kemarin', 'bagaimana', 'kehidupan', 'kita', 'kesehatan', 'kita', 'pola', 'hidup', 'dan', 'pola', 'makan', 'kita', 'olahraga', 'kita', 'belajar', 'ki']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['diiringi', 'syukur', 'alhamdulillah', 'karunia', 'allah', 'istighfar', 'kesalahan', 'lakukan']</t>
+          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['iring', 'syukur', 'alhamdulillah', 'karunia', 'allah', 'istighfar', 'salah', 'laku']</t>
+          <t>['setahun', 'kemarin', 'kehidupan', 'kesehatan', 'pola', 'hidup', 'pola', 'makan', 'olahraga', 'belajar', 'ki']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['tahun', 'kemarin', 'hidup', 'sehat', 'pola', 'hidup', 'pola', 'makan', 'olahraga', 'ajar', 'ki']</t>
         </is>
       </c>
     </row>
@@ -2271,34 +2526,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15501</v>
+        <v>26268</v>
       </c>
       <c r="C52" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>hari ini kita telah menggenapkan bilangan tahun penanggalan hijriah ada baiknya momentum tahun baru ini kita lua</t>
+          <t>diiringi rasa syukur alhamdulillah atas segala karunia yg allah berikan selama ini dan istighfar atas segala kesalahan yang kita lakukan</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['hari', 'ini', 'kita', 'telah', 'menggenapkan', 'bilangan', 'tahun', 'penanggalan', 'hijriah', 'ada', 'baiknya', 'momentum', 'tahun', 'baru', 'ini', 'kita', 'lua']</t>
+          <t>['diiringi', 'rasa', 'syukur', 'alhamdulillah', 'atas', 'segala', 'karunia', 'yg', 'allah', 'berikan', 'selama', 'ini', 'dan', 'istighfar', 'atas', 'segala', 'kesalahan', 'yang', 'kita', 'lakukan']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['diiringi', 'rasa', 'syukur', 'alhamdulillah', 'atas', 'segala', 'karunia', 'yang', 'allah', 'berikan', 'selama', 'ini', 'dan', 'istighfar', 'atas', 'segala', 'kesalahan', 'yang', 'kita', 'lakukan']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['menggenapkan', 'bilangan', 'penanggalan', 'hijriah', 'baiknya', 'momentum', 'lua']</t>
+          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['genap', 'bilang', 'tanggal', 'hijriah', 'baik', 'momentum', 'lua']</t>
+          <t>['diiringi', 'syukur', 'alhamdulillah', 'karunia', 'allah', 'istighfar', 'kesalahan', 'lakukan']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['iring', 'syukur', 'alhamdulillah', 'karunia', 'allah', 'istighfar', 'salah', 'laku']</t>
         </is>
       </c>
     </row>
@@ -2307,34 +2567,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15502</v>
+        <v>26269</v>
       </c>
       <c r="C53" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ditulis oleh dr adham syarqawi</t>
+          <t>hari ini kita telah menggenapkan bilangan tahun penanggalan hijriah ada baiknya momentum tahun baru ini kita lua</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['ditulis', 'oleh', 'dr', 'adham', 'syarqawi']</t>
+          <t>['hari', 'ini', 'kita', 'telah', 'menggenapkan', 'bilangan', 'tahun', 'penanggalan', 'hijriah', 'ada', 'baiknya', 'momentum', 'tahun', 'baru', 'ini', 'kita', 'lua']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['hari', 'ini', 'kita', 'telah', 'menggenapkan', 'bilangan', 'tahun', 'penanggalan', 'hijriah', 'ada', 'baiknya', 'momentum', 'tahun', 'baru', 'ini', 'kita', 'lua']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['ditulis', 'dr', 'adham', 'syarqawi']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['tulis', 'dr', 'adham', 'syarqawi']</t>
+          <t>['menggenapkan', 'bilangan', 'penanggalan', 'hijriah', 'baiknya', 'momentum', 'lua']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['genap', 'bilang', 'tanggal', 'hijriah', 'baik', 'momentum', 'lua']</t>
         </is>
       </c>
     </row>
@@ -2343,34 +2608,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15503</v>
+        <v>26270</v>
       </c>
       <c r="C54" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">pada suatu malam yang gelap gulita beliau pernah di sebuah gua di makkah beliau membawa cahaya ke alam semesta </t>
+          <t>ditulis oleh dr adham syarqawi</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['pada', 'suatu', 'malam', 'yang', 'gelap', 'gulita', 'beliau', 'pernah', 'di', 'sebuah', 'gua', 'di', 'makkah', 'beliau', 'membawa', 'cahaya', 'ke', 'alam', 'semesta']</t>
+          <t>['ditulis', 'oleh', 'dr', 'adham', 'syarqawi']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['ditulis', 'oleh', 'dari', 'adham', 'syarqawi']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['malam', 'gelap', 'gulita', 'beliau', 'gua', 'makkah', 'beliau', 'membawa', 'cahaya', 'alam', 'semesta']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['malam', 'gelap', 'gulita', 'beliau', 'gua', 'makkah', 'beliau', 'bawa', 'cahaya', 'alam', 'semesta']</t>
+          <t>['ditulis', 'adham', 'syarqawi']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['tulis', 'adham', 'syarqawi']</t>
         </is>
       </c>
     </row>
@@ -2379,34 +2649,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15504</v>
+        <v>26271</v>
       </c>
       <c r="C55" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>setelah delapan tahun kemudian beliau kembali ke makkah pada siang yang terang benderang beliau masuk ke makka</t>
+          <t xml:space="preserve">pada suatu malam yang gelap gulita beliau pernah di sebuah gua di makkah beliau membawa cahaya ke alam semesta </t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['setelah', 'delapan', 'tahun', 'kemudian', 'beliau', 'kembali', 'ke', 'makkah', 'pada', 'siang', 'yang', 'terang', 'benderang', 'beliau', 'masuk', 'ke', 'makka']</t>
+          <t>['pada', 'suatu', 'malam', 'yang', 'gelap', 'gulita', 'beliau', 'pernah', 'di', 'sebuah', 'gua', 'di', 'makkah', 'beliau', 'membawa', 'cahaya', 'ke', 'alam', 'semesta']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['pada', 'suatu', 'malam', 'yang', 'gelap', 'gulita', 'beliau', 'pernah', 'di', 'sebuah', 'gue', 'di', 'makkah', 'beliau', 'membawa', 'cahaya', 'ke', 'alam', 'semesta']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['delapan', 'beliau', 'makkah', 'siang', 'terang', 'benderang', 'beliau', 'masuk', 'makka']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['delapan', 'beliau', 'makkah', 'siang', 'terang', 'benderang', 'beliau', 'masuk', 'makka']</t>
+          <t>['malam', 'gelap', 'gulita', 'beliau', 'gue', 'makkah', 'beliau', 'membawa', 'cahaya', 'alam', 'semesta']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['malam', 'gelap', 'gulita', 'beliau', 'gue', 'makkah', 'beliau', 'bawa', 'cahaya', 'alam', 'semesta']</t>
         </is>
       </c>
     </row>
@@ -2415,34 +2690,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15505</v>
+        <v>26272</v>
       </c>
       <c r="C56" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>tahun yang lalu beliau shallallahu alaihi wa sallam merasa tertekan di makkah lalu beliau keluar meningga</t>
+          <t>setelah delapan tahun kemudian beliau kembali ke makkah pada siang yang terang benderang beliau masuk ke makka</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['tahun', 'yang', 'lalu', 'beliau', 'shallallahu', 'alaihi', 'wa', 'sallam', 'merasa', 'tertekan', 'di', 'makkah', 'lalu', 'beliau', 'keluar', 'meningga']</t>
+          <t>['setelah', 'delapan', 'tahun', 'kemudian', 'beliau', 'kembali', 'ke', 'makkah', 'pada', 'siang', 'yang', 'terang', 'benderang', 'beliau', 'masuk', 'ke', 'makka']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['setelah', 'delapan', 'tahun', 'kemudian', 'beliau', 'kembali', 'ke', 'makkah', 'pada', 'siang', 'yang', 'terang', 'benderang', 'beliau', 'masuk', 'ke', 'makka']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['beliau', 'shallallahu', 'alaihi', 'wa', 'sallam', 'tertekan', 'makkah', 'beliau', 'meningga']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['beliau', 'shallallahu', 'alaihi', 'wa', 'sallam', 'tekan', 'makkah', 'beliau', 'meningga']</t>
+          <t>['delapan', 'beliau', 'makkah', 'siang', 'terang', 'benderang', 'beliau', 'masuk', 'makka']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['delapan', 'beliau', 'makkah', 'siang', 'terang', 'benderang', 'beliau', 'masuk', 'makka']</t>
         </is>
       </c>
     </row>
@@ -2451,34 +2731,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15506</v>
+        <v>26273</v>
       </c>
       <c r="C57" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>selamat tahun baru hijriyyah  hadirkan mimpi dan cita cita besar untuk sebuah karya besar di nkri yang kita</t>
+          <t>tahun yang lalu beliau shallallahu alaihi wa sallam merasa tertekan di makkah lalu beliau keluar meningga</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['selamat', 'tahun', 'baru', 'hijriyyah', 'hadirkan', 'mimpi', 'dan', 'cita', 'cita', 'besar', 'untuk', 'sebuah', 'karya', 'besar', 'di', 'nkri', 'yang', 'kita']</t>
+          <t>['tahun', 'yang', 'lalu', 'beliau', 'shallallahu', 'alaihi', 'wa', 'sallam', 'merasa', 'tertekan', 'di', 'makkah', 'lalu', 'beliau', 'keluar', 'meningga']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['tahun', 'yang', 'lalu', 'beliau', 'shallallahu', 'alaihi', 'wa', 'salam', 'merasa', 'tertekan', 'di', 'makkah', 'lalu', 'beliau', 'keluar', 'meningga']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['selamat', 'hijriyyah', 'hadirkan', 'mimpi', 'cita', 'cita', 'karya', 'nkri']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['selamat', 'hijriyyah', 'hadir', 'mimpi', 'cita', 'cita', 'karya', 'nkri']</t>
+          <t>['beliau', 'shallallahu', 'alaihi', 'wa', 'salam', 'tertekan', 'makkah', 'beliau', 'meningga']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['beliau', 'shallallahu', 'alaihi', 'wa', 'salam', 'tekan', 'makkah', 'beliau', 'meningga']</t>
         </is>
       </c>
     </row>
@@ -2487,34 +2772,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15507</v>
+        <v>26274</v>
       </c>
       <c r="C58" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>smg husnul khotimahtercatat sbg syahid dan allah jadikan penghuni surganya</t>
+          <t>selamat tahun baru hijriyyah  hadirkan mimpi dan cita cita besar untuk sebuah karya besar di nkri yang kita</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['smg', 'husnul', 'khotimahtercatat', 'sbg', 'syahid', 'dan', 'allah', 'jadikan', 'penghuni', 'surganya']</t>
+          <t>['selamat', 'tahun', 'baru', 'hijriyyah', 'hadirkan', 'mimpi', 'dan', 'cita', 'cita', 'besar', 'untuk', 'sebuah', 'karya', 'besar', 'di', 'nkri', 'yang', 'kita']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['selamat', 'tahun', 'baru', 'hijriyyah', 'hadirkan', 'mimpi', 'dan', 'cita', 'cita', 'besar', 'untuk', 'sebuah', 'karya', 'besar', 'di', 'negara, kesatuan, republik, indonesia', 'yang', 'kita']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['smg', 'husnul', 'khotimahtercatat', 'sbg', 'syahid', 'allah', 'jadikan', 'penghuni', 'surganya']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['smg', 'husnul', 'khotimahtercatat', 'sbg', 'syahid', 'allah', 'jadi', 'huni', 'surga']</t>
+          <t>['selamat', 'hijriyyah', 'hadirkan', 'mimpi', 'cita', 'cita', 'karya', 'negara, kesatuan, republik, indonesia']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['selamat', 'hijriyyah', 'hadir', 'mimpi', 'cita', 'cita', 'karya', 'negara satu republik indonesia']</t>
         </is>
       </c>
     </row>
@@ -2523,34 +2813,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15508</v>
+        <v>26275</v>
       </c>
       <c r="C59" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>kita siap siap subuh yukk jangan lupa sunah rakaat sebelum fardlu subuh yg pahalanya lbh baik dari dunia dan se</t>
+          <t>smg husnul khotimahtercatat sbg syahid dan allah jadikan penghuni surganya</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['kita', 'siap', 'siap', 'subuh', 'yukk', 'jangan', 'lupa', 'sunah', 'rakaat', 'sebelum', 'fardlu', 'subuh', 'yg', 'pahalanya', 'lbh', 'baik', 'dari', 'dunia', 'dan', 'se']</t>
+          <t>['smg', 'husnul', 'khotimahtercatat', 'sbg', 'syahid', 'dan', 'allah', 'jadikan', 'penghuni', 'surganya']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['semoga', 'husnul', 'khotimahtercatat', 'sebagai', 'syahid', 'dan', 'allah', 'jadikan', 'penghuni', 'surganya']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['subuh', 'yukk', 'lupa', 'sunah', 'rakaat', 'fardlu', 'subuh', 'pahalanya', 'lbh', 'dunia']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['subuh', 'yukk', 'lupa', 'sunah', 'rakaat', 'fardlu', 'subuh', 'pahala', 'lbh', 'dunia']</t>
+          <t>['semoga', 'husnul', 'khotimahtercatat', 'syahid', 'allah', 'jadikan', 'penghuni', 'surganya']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['moga', 'husnul', 'khotimahtercatat', 'syahid', 'allah', 'jadi', 'huni', 'surga']</t>
         </is>
       </c>
     </row>
@@ -2559,34 +2854,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15509</v>
+        <v>26276</v>
       </c>
       <c r="C60" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>salut berat untuk act benar benar cepat tanggap</t>
+          <t>kita siap siap subuh yukk jangan lupa sunah rakaat sebelum fardlu subuh yg pahalanya lbh baik dari dunia dan se</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['salut', 'berat', 'untuk', 'act', 'benar', 'benar', 'cepat', 'tanggap']</t>
+          <t>['kita', 'siap', 'siap', 'subuh', 'yukk', 'jangan', 'lupa', 'sunah', 'rakaat', 'sebelum', 'fardlu', 'subuh', 'yg', 'pahalanya', 'lbh', 'baik', 'dari', 'dunia', 'dan', 'se']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['kita', 'siap', 'siap', 'subuh', 'ayo', 'jangan', 'lupa', 'sunah', 'rakaat', 'sebelum', 'fardlu', 'subuh', 'yang', 'pahalanya', 'lebih', 'baik', 'dari', 'dunia', 'dan', 'se']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['salut', 'berat', 'act', 'cepat', 'tanggap']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['salut', 'berat', 'act', 'cepat', 'tanggap']</t>
+          <t>['subuh', 'ayo', 'lupa', 'sunah', 'rakaat', 'fardlu', 'subuh', 'pahalanya', 'dunia']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['subuh', 'ayo', 'lupa', 'sunah', 'rakaat', 'fardlu', 'subuh', 'pahala', 'dunia']</t>
         </is>
       </c>
     </row>
@@ -2595,34 +2895,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15510</v>
+        <v>26277</v>
       </c>
       <c r="C61" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>rt mahesa ayo jgn takut jika mendapatkan jadwal test covid apakah itu rapid test atau pcr test tdk sakit koq amp semua itu buat</t>
+          <t>salut berat untuk act benar benar cepat tanggap</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['rt', 'mahesa', 'ayo', 'jgn', 'takut', 'jika', 'mendapatkan', 'jadwal', 'test', 'covid', 'apakah', 'itu', 'rapid', 'test', 'atau', 'pcr', 'test', 'tdk', 'sakit', 'koq', 'amp', 'semua', 'itu', 'buat']</t>
+          <t>['salut', 'berat', 'untuk', 'act', 'benar', 'benar', 'cepat', 'tanggap']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 24 outcomes&gt;</t>
+          <t>['salut', 'berat', 'untuk', 'act', 'benar', 'benar', 'cepat', 'tanggap']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['mahesa', 'ayo', 'takut', 'jadwal', 'test', 'covid', 'rapid', 'test', 'pcr', 'test', 'sakit', 'koq']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['mahesa', 'ayo', 'takut', 'jadwal', 'test', 'covid', 'rapid', 'test', 'pcr', 'test', 'sakit', 'koq']</t>
+          <t>['salut', 'berat', 'act', 'cepat', 'tanggap']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['salut', 'berat', 'act', 'cepat', 'tanggap']</t>
         </is>
       </c>
     </row>
@@ -2631,34 +2936,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15511</v>
+        <v>26278</v>
       </c>
       <c r="C62" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>sikap kemanusiaan yg luar biasa pbb harus belajar dari masyarakat aceh</t>
+          <t>rt mahesa ayo jgn takut jika mendapatkan jadwal test covid apakah itu rapid test atau pcr test tdk sakit koq amp semua itu buat</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['sikap', 'kemanusiaan', 'yg', 'luar', 'biasa', 'pbb', 'harus', 'belajar', 'dari', 'masyarakat', 'aceh']</t>
+          <t>['rt', 'mahesa', 'ayo', 'jgn', 'takut', 'jika', 'mendapatkan', 'jadwal', 'test', 'covid', 'apakah', 'itu', 'rapid', 'test', 'atau', 'pcr', 'test', 'tdk', 'sakit', 'koq', 'amp', 'semua', 'itu', 'buat']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'mahesa', 'ayo', 'jangan', 'takut', 'jika', 'mendapatkan', 'jadwal', 'tes', 'covid', 'apakah', 'itu', 'rapid', 'tes', 'atau', 'pacar', 'tes', 'tidak', 'sakit', 'kok', 'amp', 'semua', 'itu', 'buat']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['sikap', 'kemanusiaan', 'pbb', 'belajar', 'masyarakat', 'aceh']</t>
+          <t>&lt;FreqDist with 21 samples and 24 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['sikap', 'manusia', 'pbb', 'ajar', 'masyarakat', 'aceh']</t>
+          <t>['mahesa', 'ayo', 'takut', 'jadwal', 'tes', 'covid', 'rapid', 'tes', 'pacar', 'tes', 'sakit']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['mahesa', 'ayo', 'takut', 'jadwal', 'tes', 'covid', 'rapid', 'tes', 'pacar', 'tes', 'sakit']</t>
         </is>
       </c>
     </row>
@@ -2667,34 +2977,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15512</v>
+        <v>26279</v>
       </c>
       <c r="C63" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>sikap kemanusiaan yg luar biasa pbb harus belajar dari masyarakat aceh</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['sikap', 'kemanusiaan', 'yg', 'luar', 'biasa', 'pbb', 'harus', 'belajar', 'dari', 'masyarakat', 'aceh']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['sikap', 'kemanusiaan', 'yang', 'luar', 'biasa', 'pbb', 'harus', 'belajar', 'dari', 'masyarakat', 'aceh']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['sikap', 'kemanusiaan', 'pbb', 'belajar', 'masyarakat', 'aceh']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['sikap', 'manusia', 'pbb', 'ajar', 'masyarakat', 'aceh']</t>
         </is>
       </c>
     </row>
@@ -2703,34 +3018,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15513</v>
+        <v>26280</v>
       </c>
       <c r="C64" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>selamat milad utk pujangga kebanggaan bangsa</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['selamat', 'milad', 'utk', 'pujangga', 'kebanggaan', 'bangsa']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['selamat', 'milad', 'pujangga', 'kebanggaan', 'bangsa']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['selamat', 'milad', 'pujangga', 'bangga', 'bangsa']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2739,34 +3059,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15514</v>
+        <v>26281</v>
       </c>
       <c r="C65" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>rt pancasila sebenarnya mencerminkan nilainilai agama khususnya agama islam</t>
+          <t>selamat milad utk pujangga kebanggaan bangsa</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['rt', 'pancasila', 'sebenarnya', 'mencerminkan', 'nilainilai', 'agama', 'khususnya', 'agama', 'islam']</t>
+          <t>['selamat', 'milad', 'utk', 'pujangga', 'kebanggaan', 'bangsa']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['selamat', 'milad', 'untuk', 'pujangga', 'kebanggaan', 'bangsa']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['pancasila', 'mencerminkan', 'nilainilai', 'agama', 'agama', 'islam']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['pancasila', 'cermin', 'nilainilai', 'agama', 'agama', 'islam']</t>
+          <t>['selamat', 'milad', 'pujangga', 'kebanggaan', 'bangsa']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['selamat', 'milad', 'pujangga', 'bangga', 'bangsa']</t>
         </is>
       </c>
     </row>
@@ -2775,34 +3100,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15515</v>
+        <v>26282</v>
       </c>
       <c r="C66" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>yuk kita jaga dan amalkan nilai nilai pancasila yang sdh jadi konsensus dasar kebangsaan di negara kitankri tahaj</t>
+          <t>rt pancasila sebenarnya mencerminkan nilainilai agama khususnya agama islam</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['yuk', 'kita', 'jaga', 'dan', 'amalkan', 'nilai', 'nilai', 'pancasila', 'yang', 'sdh', 'jadi', 'konsensus', 'dasar', 'kebangsaan', 'di', 'negara', 'kitankri', 'tahaj']</t>
+          <t>['rt', 'pancasila', 'sebenarnya', 'mencerminkan', 'nilainilai', 'agama', 'khususnya', 'agama', 'islam']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'pancasila', 'sebenarnya', 'mencerminkan', 'nilainilai', 'agama', 'khususnya', 'agama', 'islam']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['yuk', 'jaga', 'amalkan', 'nilai', 'nilai', 'pancasila', 'konsensus', 'dasar', 'kebangsaan', 'negara', 'kitankri', 'tahaj']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['yuk', 'jaga', 'amal', 'nilai', 'nilai', 'pancasila', 'konsensus', 'dasar', 'bangsa', 'negara', 'kitankri', 'tahaj']</t>
+          <t>['pancasila', 'mencerminkan', 'nilainilai', 'agama', 'agama', 'islam']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['pancasila', 'cermin', 'nilainilai', 'agama', 'agama', 'islam']</t>
         </is>
       </c>
     </row>
@@ -2811,34 +3141,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15516</v>
+        <v>26283</v>
       </c>
       <c r="C67" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>rt yg menimpa george floyd sebenarnya dirasakan setiap hari oleh rakyat palestine tapi senyap dan sunyi</t>
+          <t>yuk kita jaga dan amalkan nilai nilai pancasila yang sdh jadi konsensus dasar kebangsaan di negara kitankri tahaj</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['rt', 'yg', 'menimpa', 'george', 'floyd', 'sebenarnya', 'dirasakan', 'setiap', 'hari', 'oleh', 'rakyat', 'palestine', 'tapi', 'senyap', 'dan', 'sunyi']</t>
+          <t>['yuk', 'kita', 'jaga', 'dan', 'amalkan', 'nilai', 'nilai', 'pancasila', 'yang', 'sdh', 'jadi', 'konsensus', 'dasar', 'kebangsaan', 'di', 'negara', 'kitankri', 'tahaj']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['yuk', 'kita', 'jaga', 'dan', 'amalkan', 'nilai', 'nilai', 'pancasila', 'yang', 'sudah', 'jadi', 'konsensus', 'dasar', 'kebangsaan', 'di', 'negara', 'kitankri', 'tahaj']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['menimpa', 'george', 'floyd', 'dirasakan', 'rakyat', 'palestine', 'senyap', 'sunyi']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['timpa', 'george', 'floyd', 'rasa', 'rakyat', 'palestine', 'senyap', 'sunyi']</t>
+          <t>['yuk', 'jaga', 'amalkan', 'nilai', 'nilai', 'pancasila', 'konsensus', 'dasar', 'kebangsaan', 'negara', 'kitankri', 'tahaj']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['yuk', 'jaga', 'amal', 'nilai', 'nilai', 'pancasila', 'konsensus', 'dasar', 'bangsa', 'negara', 'kitankri', 'tahaj']</t>
         </is>
       </c>
     </row>
@@ -2847,34 +3182,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15517</v>
+        <v>26284</v>
       </c>
       <c r="C68" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>peristiwa george floyd smg membuka mata dunia terhadap kedzaliman zionis di palestina</t>
+          <t>rt yg menimpa george floyd sebenarnya dirasakan setiap hari oleh rakyat palestine tapi senyap dan sunyi</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['peristiwa', 'george', 'floyd', 'smg', 'membuka', 'mata', 'dunia', 'terhadap', 'kedzaliman', 'zionis', 'di', 'palestina']</t>
+          <t>['rt', 'yg', 'menimpa', 'george', 'floyd', 'sebenarnya', 'dirasakan', 'setiap', 'hari', 'oleh', 'rakyat', 'palestine', 'tapi', 'senyap', 'dan', 'sunyi']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'yang', 'menimpa', 'george', 'floyd', 'sebenarnya', 'dirasakan', 'setiap', 'hari', 'oleh', 'rakyat', 'palestina', 'tapi', 'senyap', 'dan', 'sunyi']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['peristiwa', 'george', 'floyd', 'smg', 'membuka', 'mata', 'dunia', 'kedzaliman', 'zionis', 'palestina']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['peristiwa', 'george', 'floyd', 'smg', 'buka', 'mata', 'dunia', 'kedzaliman', 'zionis', 'palestina']</t>
+          <t>['menimpa', 'george', 'floyd', 'dirasakan', 'rakyat', 'palestina', 'senyap', 'sunyi']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['timpa', 'george', 'floyd', 'rasa', 'rakyat', 'palestina', 'senyap', 'sunyi']</t>
         </is>
       </c>
     </row>
@@ -2883,34 +3223,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15518</v>
+        <v>26285</v>
       </c>
       <c r="C69" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>rt sangat tidak sesuai dg pancasilaampprinsip negara demokrasiamphukum ada pihak yg menteror narasumberamppanitya rencana diskusi il</t>
+          <t>peristiwa george floyd smg membuka mata dunia terhadap kedzaliman zionis di palestina</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['rt', 'sangat', 'tidak', 'sesuai', 'dg', 'pancasilaampprinsip', 'negara', 'demokrasiamphukum', 'ada', 'pihak', 'yg', 'menteror', 'narasumberamppanitya', 'rencana', 'diskusi', 'il']</t>
+          <t>['peristiwa', 'george', 'floyd', 'smg', 'membuka', 'mata', 'dunia', 'terhadap', 'kedzaliman', 'zionis', 'di', 'palestina']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['peristiwa', 'george', 'floyd', 'semoga', 'membuka', 'mata', 'dunia', 'terhadap', 'kedzaliman', 'zionis', 'di', 'palestina']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['sesuai', 'pancasilaampprinsip', 'negara', 'demokrasiamphukum', 'menteror', 'narasumberamppanitya', 'rencana', 'diskusi', 'il']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['sesuai', 'pancasilaampprinsip', 'negara', 'demokrasiamphukum', 'teror', 'narasumberamppanitya', 'rencana', 'diskusi', 'il']</t>
+          <t>['peristiwa', 'george', 'floyd', 'semoga', 'membuka', 'mata', 'dunia', 'kedzaliman', 'zionis', 'palestina']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['peristiwa', 'george', 'floyd', 'moga', 'buka', 'mata', 'dunia', 'kedzaliman', 'zionis', 'palestina']</t>
         </is>
       </c>
     </row>
@@ -2919,34 +3264,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15519</v>
+        <v>26286</v>
       </c>
       <c r="C70" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>rt bravo kongres as akhirnya justru as yg membela muslim uyghur dr penindasan di rrc negara islam di timur tengah umumnya tak</t>
+          <t>rt sangat tidak sesuai dg pancasilaampprinsip negara demokrasiamphukum ada pihak yg menteror narasumberamppanitya rencana diskusi il</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['rt', 'bravo', 'kongres', 'as', 'akhirnya', 'justru', 'as', 'yg', 'membela', 'muslim', 'uyghur', 'dr', 'penindasan', 'di', 'rrc', 'negara', 'islam', 'di', 'timur', 'tengah', 'umumnya', 'tak']</t>
+          <t>['rt', 'sangat', 'tidak', 'sesuai', 'dg', 'pancasilaampprinsip', 'negara', 'demokrasiamphukum', 'ada', 'pihak', 'yg', 'menteror', 'narasumberamppanitya', 'rencana', 'diskusi', 'il']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
+          <t>['rt', 'sangat', 'tidak', 'sesuai', 'dengan', 'pancasilaampprinsip', 'negara', 'demokrasiamphukum', 'ada', 'pihak', 'yang', 'menteror', 'narasumberamppanitya', 'rencana', 'diskusi', 'il']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['bravo', 'kongres', 'as', 'as', 'membela', 'muslim', 'uyghur', 'dr', 'penindasan', 'rrc', 'negara', 'islam', 'timur']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['bravo', 'kongres', 'as', 'as', 'bela', 'muslim', 'uyghur', 'dr', 'tindas', 'rrc', 'negara', 'islam', 'timur']</t>
+          <t>['sesuai', 'pancasilaampprinsip', 'negara', 'demokrasiamphukum', 'menteror', 'narasumberamppanitya', 'rencana', 'diskusi', 'il']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['sesuai', 'pancasilaampprinsip', 'negara', 'demokrasiamphukum', 'teror', 'narasumberamppanitya', 'rencana', 'diskusi', 'il']</t>
         </is>
       </c>
     </row>
@@ -2955,34 +3305,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>15520</v>
+        <v>26287</v>
       </c>
       <c r="C71" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>setuju bung agung</t>
+          <t>rt bravo kongres as akhirnya justru as yg membela muslim uyghur dr penindasan di rrc negara islam di timur tengah umumnya tak</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['setuju', 'bung', 'agung']</t>
+          <t>['rt', 'bravo', 'kongres', 'as', 'akhirnya', 'justru', 'as', 'yg', 'membela', 'muslim', 'uyghur', 'dr', 'penindasan', 'di', 'rrc', 'negara', 'islam', 'di', 'timur', 'tengah', 'umumnya', 'tak']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'bravo', 'kongres', 'as', 'akhirnya', 'justru', 'as', 'yang', 'membela', 'muslim', 'ai', 'dari', 'penindasan', 'di', 'republik, rakyat, cina', 'negara', 'islam', 'di', 'timur', 'tengah', 'umumnya', 'tak']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['setuju', 'agung']</t>
+          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['tuju', 'agung']</t>
+          <t>['bravo', 'kongres', 'as', 'as', 'membela', 'muslim', 'ai', 'penindasan', 'republik, rakyat, cina', 'negara', 'islam', 'timur']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['bravo', 'kongres', 'as', 'as', 'bela', 'muslim', 'ai', 'tindas', 'republik rakyat cina', 'negara', 'islam', 'timur']</t>
         </is>
       </c>
     </row>
@@ -2991,34 +3346,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15521</v>
+        <v>26288</v>
       </c>
       <c r="C72" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>rt turut berduka tenaga medis anggota gugus tugas covid ditembak kkb di intan jaya papua barat kembali kkb menterorampmen</t>
+          <t>setuju bung agung</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['rt', 'turut', 'berduka', 'tenaga', 'medis', 'anggota', 'gugus', 'tugas', 'covid', 'ditembak', 'kkb', 'di', 'intan', 'jaya', 'papua', 'barat', 'kembali', 'kkb', 'menterorampmen']</t>
+          <t>['setuju', 'bung', 'agung']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['setuju', 'bung', 'agung']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['berduka', 'tenaga', 'medis', 'anggota', 'gugus', 'tugas', 'covid', 'ditembak', 'kkb', 'intan', 'jaya', 'papua', 'barat', 'kkb', 'menterorampmen']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['duka', 'tenaga', 'medis', 'anggota', 'gugus', 'tugas', 'covid', 'tembak', 'kkb', 'intan', 'jaya', 'papua', 'barat', 'kkb', 'menterorampmen']</t>
+          <t>['setuju', 'agung']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['tuju', 'agung']</t>
         </is>
       </c>
     </row>
@@ -3027,34 +3387,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15522</v>
+        <v>26289</v>
       </c>
       <c r="C73" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>heheheaya aya wae usul spt ini rupiah sdh melemah ehada usul cetak uang  ya pasti inflasi akan sangat ti</t>
+          <t>rt turut berduka tenaga medis anggota gugus tugas covid ditembak kkb di intan jaya papua barat kembali kkb menterorampmen</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['heheheaya', 'aya', 'wae', 'usul', 'spt', 'ini', 'rupiah', 'sdh', 'melemah', 'ehada', 'usul', 'cetak', 'uang', 'ya', 'pasti', 'inflasi', 'akan', 'sangat', 'ti']</t>
+          <t>['rt', 'turut', 'berduka', 'tenaga', 'medis', 'anggota', 'gugus', 'tugas', 'covid', 'ditembak', 'kkb', 'di', 'intan', 'jaya', 'papua', 'barat', 'kembali', 'kkb', 'menterorampmen']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['rt', 'turut', 'berduka', 'tenaga', 'medis', 'anggota', 'gugus', 'tugas', 'covid', 'ditembak', 'kkb', 'di', 'intan', 'jaya', 'papua', 'barat', 'kembali', 'kkb', 'menterorampmen']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>['heheheaya', 'aya', 'wae', 'usul', 'spt', 'rupiah', 'melemah', 'ehada', 'usul', 'cetak', 'uang', 'inflasi', 'ti']</t>
-        </is>
-      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['heheheaya', 'aya', 'wae', 'usul', 'spt', 'rupiah', 'lemah', 'ehada', 'usul', 'cetak', 'uang', 'inflasi', 'ti']</t>
+          <t>['berduka', 'tenaga', 'medis', 'anggota', 'gugus', 'tugas', 'covid', 'ditembak', 'kkb', 'intan', 'jaya', 'papua', 'barat', 'kkb', 'menterorampmen']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['duka', 'tenaga', 'medis', 'anggota', 'gugus', 'tugas', 'covid', 'tembak', 'kkb', 'intan', 'jaya', 'papua', 'barat', 'kkb', 'menterorampmen']</t>
         </is>
       </c>
     </row>
@@ -3063,34 +3428,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15523</v>
+        <v>26290</v>
       </c>
       <c r="C74" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rt heryawan selamat ulang tahun yang ke delapan untuk fajar cirebon sukses untuk fajar cirebon bersinergi membangun negeri</t>
+          <t>heheheaya aya wae usul spt ini rupiah sdh melemah ehada usul cetak uang  ya pasti inflasi akan sangat ti</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['rt', 'heryawan', 'selamat', 'ulang', 'tahun', 'yang', 'ke', 'delapan', 'untuk', 'fajar', 'cirebon', 'sukses', 'untuk', 'fajar', 'cirebon', 'bersinergi', 'membangun', 'negeri']</t>
+          <t>['heheheaya', 'aya', 'wae', 'usul', 'spt', 'ini', 'rupiah', 'sdh', 'melemah', 'ehada', 'usul', 'cetak', 'uang', 'ya', 'pasti', 'inflasi', 'akan', 'sangat', 'ti']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['heheheaya', 'ada', 'saja', 'usul', 'surat, pemberitahuan, tahunan', 'ini', 'rupiah', 'sudah', 'melemah', 'ehada', 'usul', 'cetak', 'uang', 'ya', 'pasti', 'inflasi', 'akan', 'sangat', 'ti']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['heryawan', 'selamat', 'ulang', 'delapan', 'fajar', 'cirebon', 'sukses', 'fajar', 'cirebon', 'bersinergi', 'membangun', 'negeri']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['heryawan', 'selamat', 'ulang', 'delapan', 'fajar', 'cirebon', 'sukses', 'fajar', 'cirebon', 'sinergi', 'bangun', 'negeri']</t>
+          <t>['heheheaya', 'usul', 'surat, pemberitahuan, tahunan', 'rupiah', 'melemah', 'ehada', 'usul', 'cetak', 'uang', 'inflasi', 'ti']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['heheheaya', 'usul', 'surat pemberitahuan tahun', 'rupiah', 'lemah', 'ehada', 'usul', 'cetak', 'uang', 'inflasi', 'ti']</t>
         </is>
       </c>
     </row>
@@ -3099,34 +3469,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15524</v>
+        <v>26291</v>
       </c>
       <c r="C75" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>rt heryawan selamat ulang tahun yang ke delapan untuk fajar cirebon sukses untuk fajar cirebon bersinergi membangun negeri</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['rt', 'heryawan', 'selamat', 'ulang', 'tahun', 'yang', 'ke', 'delapan', 'untuk', 'fajar', 'cirebon', 'sukses', 'untuk', 'fajar', 'cirebon', 'bersinergi', 'membangun', 'negeri']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'heryawan', 'selamat', 'ulang', 'tahun', 'yang', 'ke', 'delapan', 'untuk', 'fajar', 'cirebon', 'sukses', 'untuk', 'fajar', 'cirebon', 'bersinergi', 'membangun', 'negeri']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['heryawan', 'selamat', 'ulang', 'delapan', 'fajar', 'cirebon', 'sukses', 'fajar', 'cirebon', 'bersinergi', 'membangun', 'negeri']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['heryawan', 'selamat', 'ulang', 'delapan', 'fajar', 'cirebon', 'sukses', 'fajar', 'cirebon', 'sinergi', 'bangun', 'negeri']</t>
         </is>
       </c>
     </row>
@@ -3135,10 +3510,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15525</v>
+        <v>26292</v>
       </c>
       <c r="C76" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3152,15 +3527,20 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['rt']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3171,34 +3551,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15526</v>
+        <v>26293</v>
       </c>
       <c r="C77" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rt ya allah pertemukan kami dgn bulan ramdhan disertai dgn lenyapnya virus cor</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rt', 'ya', 'allah', 'pertemukan', 'kami', 'dgn', 'bulan', 'ramdhan', 'disertai', 'dgn', 'lenyapnya', 'virus', 'cor']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['allah', 'pertemukan', 'ramdhan', 'disertai', 'lenyapnya', 'virus', 'cor']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['allah', 'temu', 'ramdhan', 'serta', 'lenyap', 'virus', 'cor']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3207,34 +3592,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15527</v>
+        <v>26294</v>
       </c>
       <c r="C78" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">malam ini kita sambut ramadhan terindah terunik sepanjang hayat ditengah covid social distancing psbb mari </t>
+          <t>rt ya allah pertemukan kami dgn bulan ramdhan disertai dgn lenyapnya virus cor</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['malam', 'ini', 'kita', 'sambut', 'ramadhan', 'terindah', 'terunik', 'sepanjang', 'hayat', 'ditengah', 'covid', 'social', 'distancing', 'psbb', 'mari']</t>
+          <t>['rt', 'ya', 'allah', 'pertemukan', 'kami', 'dgn', 'bulan', 'ramdhan', 'disertai', 'dgn', 'lenyapnya', 'virus', 'cor']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'ya', 'allah', 'pertemukan', 'kami', 'dengan', 'bulan', 'ramdhan', 'disertai', 'dengan', 'lenyapnya', 'virus', 'cor']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['malam', 'sambut', 'ramadhan', 'terindah', 'terunik', 'hayat', 'ditengah', 'covid', 'social', 'distancing', 'psbb', 'mari']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['malam', 'sambut', 'ramadhan', 'indah', 'unik', 'hayat', 'tengah', 'covid', 'social', 'distancing', 'psbb', 'mari']</t>
+          <t>['allah', 'pertemukan', 'ramdhan', 'disertai', 'lenyapnya', 'virus', 'cor']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['allah', 'temu', 'ramdhan', 'serta', 'lenyap', 'virus', 'cor']</t>
         </is>
       </c>
     </row>
@@ -3243,34 +3633,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15528</v>
+        <v>26295</v>
       </c>
       <c r="C79" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>rt tidak spt mengisi kotak sumbangan yg kebetulan kita lewati orang perlu kesengajaan utk berdonasi via platform spt</t>
+          <t xml:space="preserve">malam ini kita sambut ramadhan terindah terunik sepanjang hayat ditengah covid social distancing psbb mari </t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['rt', 'tidak', 'spt', 'mengisi', 'kotak', 'sumbangan', 'yg', 'kebetulan', 'kita', 'lewati', 'orang', 'perlu', 'kesengajaan', 'utk', 'berdonasi', 'via', 'platform', 'spt']</t>
+          <t>['malam', 'ini', 'kita', 'sambut', 'ramadhan', 'terindah', 'terunik', 'sepanjang', 'hayat', 'ditengah', 'covid', 'social', 'distancing', 'psbb', 'mari']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['malam', 'ini', 'kita', 'sambut', 'ramadan', 'terindah', 'terunik', 'sepanjang', 'hayat', 'ditengah', 'covid', 'sosial', 'distancing', 'psbb', 'mari']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['spt', 'mengisi', 'kotak', 'sumbangan', 'lewati', 'orang', 'kesengajaan', 'berdonasi', 'via', 'platform', 'spt']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['spt', 'isi', 'kotak', 'sumbang', 'lewat', 'orang', 'sengaja', 'donasi', 'via', 'platform', 'spt']</t>
+          <t>['malam', 'sambut', 'ramadan', 'terindah', 'terunik', 'hayat', 'ditengah', 'covid', 'sosial', 'distancing', 'psbb', 'mari']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['malam', 'sambut', 'ramadan', 'indah', 'unik', 'hayat', 'tengah', 'covid', 'sosial', 'distancing', 'psbb', 'mari']</t>
         </is>
       </c>
     </row>
@@ -3279,34 +3674,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15529</v>
+        <v>26296</v>
       </c>
       <c r="C80" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>rt virus corona tidak mengenal batasbatas negara semalam telekonferensi bersama walikota pemimpin kota dari negara</t>
+          <t>rt tidak spt mengisi kotak sumbangan yg kebetulan kita lewati orang perlu kesengajaan utk berdonasi via platform spt</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['rt', 'virus', 'corona', 'tidak', 'mengenal', 'batasbatas', 'negara', 'semalam', 'telekonferensi', 'bersama', 'walikota', 'pemimpin', 'kota', 'dari', 'negara']</t>
+          <t>['rt', 'tidak', 'spt', 'mengisi', 'kotak', 'sumbangan', 'yg', 'kebetulan', 'kita', 'lewati', 'orang', 'perlu', 'kesengajaan', 'utk', 'berdonasi', 'via', 'platform', 'spt']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'tidak', 'surat, pemberitahuan, tahunan', 'mengisi', 'kotak', 'sumbangan', 'yang', 'kebetulan', 'kita', 'lewati', 'orang', 'perlu', 'kesengajaan', 'untuk', 'berdonasi', 'via', 'platform', 'surat, pemberitahuan, tahunan']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['virus', 'corona', 'mengenal', 'batasbatas', 'negara', 'semalam', 'telekonferensi', 'walikota', 'pemimpin', 'kota', 'negara']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['virus', 'corona', 'kenal', 'batasbatas', 'negara', 'malam', 'telekonferensi', 'walikota', 'pimpin', 'kota', 'negara']</t>
+          <t>['surat, pemberitahuan, tahunan', 'mengisi', 'kotak', 'sumbangan', 'lewati', 'orang', 'kesengajaan', 'berdonasi', 'via', 'platform', 'surat, pemberitahuan, tahunan']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['surat pemberitahuan tahun', 'isi', 'kotak', 'sumbang', 'lewat', 'orang', 'sengaja', 'donasi', 'via', 'platform', 'surat pemberitahuan tahun']</t>
         </is>
       </c>
     </row>
@@ -3315,34 +3715,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15530</v>
+        <v>26297</v>
       </c>
       <c r="C81" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>yuk kita ikuti jejak langkah dr tirta insya allah pasti ada dr tirta yg lain yg bekerja dalam sunyi kita apresia</t>
+          <t>rt virus corona tidak mengenal batasbatas negara semalam telekonferensi bersama walikota pemimpin kota dari negara</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['yuk', 'kita', 'ikuti', 'jejak', 'langkah', 'dr', 'tirta', 'insya', 'allah', 'pasti', 'ada', 'dr', 'tirta', 'yg', 'lain', 'yg', 'bekerja', 'dalam', 'sunyi', 'kita', 'apresia']</t>
+          <t>['rt', 'virus', 'corona', 'tidak', 'mengenal', 'batasbatas', 'negara', 'semalam', 'telekonferensi', 'bersama', 'walikota', 'pemimpin', 'kota', 'dari', 'negara']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'virus', 'corona', 'tidak', 'mengenal', 'batasbatas', 'negara', 'semalam', 'telekonferensi', 'bersama', 'wali, kota', 'pemimpin', 'kota', 'dari', 'negara']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['yuk', 'ikuti', 'jejak', 'langkah', 'dr', 'tirta', 'insya', 'allah', 'dr', 'tirta', 'sunyi', 'apresia']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['yuk', 'ikut', 'jejak', 'langkah', 'dr', 'tirta', 'insya', 'allah', 'dr', 'tirta', 'sunyi', 'apresia']</t>
+          <t>['virus', 'corona', 'mengenal', 'batasbatas', 'negara', 'semalam', 'telekonferensi', 'wali, kota', 'pemimpin', 'kota', 'negara']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['virus', 'corona', 'kenal', 'batasbatas', 'negara', 'malam', 'telekonferensi', 'wali kota', 'pimpin', 'kota', 'negara']</t>
         </is>
       </c>
     </row>
@@ -3351,34 +3756,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15531</v>
+        <v>26298</v>
       </c>
       <c r="C82" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>yuk kita ikuti jejak langkah dr tirta insya allah pasti ada dr tirta yg lain yg bekerja dalam sunyi kita apresia</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['yuk', 'kita', 'ikuti', 'jejak', 'langkah', 'dr', 'tirta', 'insya', 'allah', 'pasti', 'ada', 'dr', 'tirta', 'yg', 'lain', 'yg', 'bekerja', 'dalam', 'sunyi', 'kita', 'apresia']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['yuk', 'kita', 'ikuti', 'jejak', 'langkah', 'dari', 'tirta', 'insya', 'allah', 'pasti', 'ada', 'dari', 'tirta', 'yang', 'lain', 'yang', 'bekerja', 'dalam', 'sunyi', 'kita', 'apresia']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['yuk', 'ikuti', 'jejak', 'langkah', 'tirta', 'insya', 'allah', 'tirta', 'sunyi', 'apresia']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['yuk', 'ikut', 'jejak', 'langkah', 'tirta', 'insya', 'allah', 'tirta', 'sunyi', 'apresia']</t>
         </is>
       </c>
     </row>
@@ -3387,34 +3797,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15532</v>
+        <v>26299</v>
       </c>
       <c r="C83" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>aduuh fahmi dari mana dpt photo ini</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['aduuh', 'fahmi', 'dari', 'mana', 'dpt', 'photo', 'ini']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['aduuh', 'fahmi', 'dpt', 'photo']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['aduuh', 'fahmi', 'dpt', 'photo']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3423,34 +3838,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15533</v>
+        <v>26300</v>
       </c>
       <c r="C84" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>rt you are not alone pak</t>
+          <t>aduuh fahmi dari mana dpt photo ini</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['rt', 'you', 'are', 'not', 'alone', 'pak']</t>
+          <t>['aduuh', 'fahmi', 'dari', 'mana', 'dpt', 'photo', 'ini']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['aduh', 'fahmi', 'dari', 'mana', 'dapat', 'photo', 'ini']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['you', 'are', 'not', 'alone']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['you', 'are', 'not', 'alone']</t>
+          <t>['aduh', 'fahmi', 'photo']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['aduh', 'fahmi', 'photo']</t>
         </is>
       </c>
     </row>
@@ -3459,34 +3879,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15534</v>
+        <v>26301</v>
       </c>
       <c r="C85" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>amiin smg wabah ini segera allah hilangkan ya robb ya robb ya robb</t>
+          <t>rt you are not alone pak</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['amiin', 'smg', 'wabah', 'ini', 'segera', 'allah', 'hilangkan', 'ya', 'robb', 'ya', 'robb', 'ya', 'robb']</t>
+          <t>['rt', 'you', 'are', 'not', 'alone', 'pak']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'kamu', 'are', 'not', 'alone', 'pak']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['amiin', 'smg', 'wabah', 'allah', 'hilangkan', 'robb', 'robb', 'robb']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['amiin', 'smg', 'wabah', 'allah', 'hilang', 'robb', 'robb', 'robb']</t>
+          <t>['are', 'not', 'alone']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['are', 'not', 'alone']</t>
         </is>
       </c>
     </row>
@@ -3495,34 +3920,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15535</v>
+        <v>26302</v>
       </c>
       <c r="C86" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt presiden akan sgra sampaikan bantuan apd via pb idi dan ppni unt disalurkan ke tenaga kesehatan sbg dukungan </t>
+          <t>amiin smg wabah ini segera allah hilangkan ya robb ya robb ya robb</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['rt', 'presiden', 'akan', 'sgra', 'sampaikan', 'bantuan', 'apd', 'via', 'pb', 'idi', 'dan', 'ppni', 'unt', 'disalurkan', 'ke', 'tenaga', 'kesehatan', 'sbg', 'dukungan']</t>
+          <t>['amiin', 'smg', 'wabah', 'ini', 'segera', 'allah', 'hilangkan', 'ya', 'robb', 'ya', 'robb', 'ya', 'robb']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['amin', 'semoga', 'wabah', 'ini', 'segera', 'allah', 'hilangkan', 'ya', 'allah', 'ya', 'allah', 'ya', 'allah']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['presiden', 'sgra', 'bantuan', 'apd', 'via', 'pb', 'idi', 'ppni', 'unt', 'disalurkan', 'tenaga', 'kesehatan', 'sbg', 'dukungan']</t>
+          <t>&lt;FreqDist with 8 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['presiden', 'sgra', 'bantu', 'apd', 'via', 'pb', 'idi', 'ppni', 'unt', 'salur', 'tenaga', 'sehat', 'sbg', 'dukung']</t>
+          <t>['amin', 'semoga', 'wabah', 'allah', 'hilangkan', 'allah', 'allah', 'allah']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['amin', 'moga', 'wabah', 'allah', 'hilang', 'allah', 'allah', 'allah']</t>
         </is>
       </c>
     </row>
@@ -3531,34 +3961,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15536</v>
+        <v>26303</v>
       </c>
       <c r="C87" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>rt mulai hari ini hotel grand cempaka business milik bumd jakarta pt jakarta tourisindo diubah dan dioperasikan sebagai</t>
+          <t xml:space="preserve">rt presiden akan sgra sampaikan bantuan apd via pb idi dan ppni unt disalurkan ke tenaga kesehatan sbg dukungan </t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['rt', 'mulai', 'hari', 'ini', 'hotel', 'grand', 'cempaka', 'business', 'milik', 'bumd', 'jakarta', 'pt', 'jakarta', 'tourisindo', 'diubah', 'dan', 'dioperasikan', 'sebagai']</t>
+          <t>['rt', 'presiden', 'akan', 'sgra', 'sampaikan', 'bantuan', 'apd', 'via', 'pb', 'idi', 'dan', 'ppni', 'unt', 'disalurkan', 'ke', 'tenaga', 'kesehatan', 'sbg', 'dukungan']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'presiden', 'akan', 'segera', 'sampaikan', 'bantuan', 'apd', 'via', 'pb', 'idi', 'dan', 'ppni', 'untuk', 'disalurkan', 'ke', 'tenaga', 'kesehatan', 'sebagai', 'dukungan']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['hotel', 'grand', 'cempaka', 'business', 'milik', 'bumd', 'jakarta', 'pt', 'jakarta', 'tourisindo', 'diubah', 'dioperasikan']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['hotel', 'grand', 'cempaka', 'business', 'milik', 'bumd', 'jakarta', 'pt', 'jakarta', 'tourisindo', 'ubah', 'operasi']</t>
+          <t>['presiden', 'bantuan', 'apd', 'via', 'pb', 'idi', 'ppni', 'disalurkan', 'tenaga', 'kesehatan', 'dukungan']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['presiden', 'bantu', 'apd', 'via', 'pb', 'idi', 'ppni', 'salur', 'tenaga', 'sehat', 'dukung']</t>
         </is>
       </c>
     </row>
@@ -3567,34 +4002,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15537</v>
+        <v>26304</v>
       </c>
       <c r="C88" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt presiden pks sohibuliman mengatakan ketersediaan apd untuk para tenaga medis yang terbatas menjadi salah satu fokus </t>
+          <t>rt mulai hari ini hotel grand cempaka business milik bumd jakarta pt jakarta tourisindo diubah dan dioperasikan sebagai</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['rt', 'presiden', 'pks', 'sohibuliman', 'mengatakan', 'ketersediaan', 'apd', 'untuk', 'para', 'tenaga', 'medis', 'yang', 'terbatas', 'menjadi', 'salah', 'satu', 'fokus']</t>
+          <t>['rt', 'mulai', 'hari', 'ini', 'hotel', 'grand', 'cempaka', 'business', 'milik', 'bumd', 'jakarta', 'pt', 'jakarta', 'tourisindo', 'diubah', 'dan', 'dioperasikan', 'sebagai']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'mulai', 'hari', 'ini', 'hotel', 'grand', 'cempaka', 'business', 'milik', 'bumd', 'jakarta', 'pt', 'jakarta', 'tourisindo', 'diubah', 'dan', 'dioperasikan', 'sebagai']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['presiden', 'pks', 'sohibuliman', 'ketersediaan', 'apd', 'tenaga', 'medis', 'terbatas', 'salah', 'fokus']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['presiden', 'pks', 'sohibuliman', 'sedia', 'apd', 'tenaga', 'medis', 'batas', 'salah', 'fokus']</t>
+          <t>['hotel', 'grand', 'cempaka', 'business', 'milik', 'bumd', 'jakarta', 'pt', 'jakarta', 'tourisindo', 'diubah', 'dioperasikan']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['hotel', 'grand', 'cempaka', 'business', 'milik', 'bumd', 'jakarta', 'pt', 'jakarta', 'tourisindo', 'ubah', 'operasi']</t>
         </is>
       </c>
     </row>
@@ -3603,34 +4043,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15538</v>
+        <v>26305</v>
       </c>
       <c r="C89" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>keterlibatan dokter dokter muda tni bersama seluruh tenaga kesehatan lainnya insya akan mempercepat upaya kita mem</t>
+          <t xml:space="preserve">rt presiden pks sohibuliman mengatakan ketersediaan apd untuk para tenaga medis yang terbatas menjadi salah satu fokus </t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['keterlibatan', 'dokter', 'dokter', 'muda', 'tni', 'bersama', 'seluruh', 'tenaga', 'kesehatan', 'lainnya', 'insya', 'akan', 'mempercepat', 'upaya', 'kita', 'mem']</t>
+          <t>['rt', 'presiden', 'pks', 'sohibuliman', 'mengatakan', 'ketersediaan', 'apd', 'untuk', 'para', 'tenaga', 'medis', 'yang', 'terbatas', 'menjadi', 'salah', 'satu', 'fokus']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'presiden', 'partai, keadilan, sejahtera', 'sohibuliman', 'mengatakan', 'ketersediaan', 'apd', 'untuk', 'para', 'tenaga', 'medis', 'yang', 'terbatas', 'menjadi', 'salah', 'satu', 'fokus']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['keterlibatan', 'dokter', 'dokter', 'muda', 'tni', 'tenaga', 'kesehatan', 'insya', 'mempercepat', 'upaya', 'mem']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['libat', 'dokter', 'dokter', 'muda', 'tni', 'tenaga', 'sehat', 'insya', 'cepat', 'upaya', 'mem']</t>
+          <t>['presiden', 'partai, keadilan, sejahtera', 'sohibuliman', 'ketersediaan', 'apd', 'tenaga', 'medis', 'terbatas', 'salah', 'fokus']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['presiden', 'partai adil sejahtera', 'sohibuliman', 'sedia', 'apd', 'tenaga', 'medis', 'batas', 'salah', 'fokus']</t>
         </is>
       </c>
     </row>
@@ -3639,34 +4084,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15539</v>
+        <v>26306</v>
       </c>
       <c r="C90" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>insya allah rakyat negri ini patuh pada perintah pemimpinnya dan mendengar nasihat ulamanya hayuuuu di rumah saja</t>
+          <t>keterlibatan dokter dokter muda tni bersama seluruh tenaga kesehatan lainnya insya akan mempercepat upaya kita mem</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['insya', 'allah', 'rakyat', 'negri', 'ini', 'patuh', 'pada', 'perintah', 'pemimpinnya', 'dan', 'mendengar', 'nasihat', 'ulamanya', 'hayuuuu', 'di', 'rumah', 'saja']</t>
+          <t>['keterlibatan', 'dokter', 'dokter', 'muda', 'tni', 'bersama', 'seluruh', 'tenaga', 'kesehatan', 'lainnya', 'insya', 'akan', 'mempercepat', 'upaya', 'kita', 'mem']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['keterlibatan', 'dokter', 'dokter', 'muda', 'tentara, nasional, indonesia', 'bersama', 'seluruh', 'tenaga', 'kesehatan', 'lainnya', 'insya', 'akan', 'mempercepat', 'upaya', 'kita', 'mem']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['insya', 'allah', 'rakyat', 'negri', 'patuh', 'perintah', 'pemimpinnya', 'mendengar', 'nasihat', 'ulamanya', 'hayuuuu', 'rumah']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['insya', 'allah', 'rakyat', 'negri', 'patuh', 'perintah', 'pimpin', 'dengar', 'nasihat', 'ulama', 'hayuuuu', 'rumah']</t>
+          <t>['keterlibatan', 'dokter', 'dokter', 'muda', 'tentara, nasional, indonesia', 'tenaga', 'kesehatan', 'insya', 'mempercepat', 'upaya', 'mem']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['libat', 'dokter', 'dokter', 'muda', 'tentara nasional indonesia', 'tenaga', 'sehat', 'insya', 'cepat', 'upaya', 'mem']</t>
         </is>
       </c>
     </row>
@@ -3675,34 +4125,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15540</v>
+        <v>26307</v>
       </c>
       <c r="C91" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>kata pengusaha di bdg china pesan besaran apd dari ri di januari saat kita belum ngeh dgn copid saat maret ki</t>
+          <t>insya allah rakyat negri ini patuh pada perintah pemimpinnya dan mendengar nasihat ulamanya hayuuuu di rumah saja</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['kata', 'pengusaha', 'di', 'bdg', 'china', 'pesan', 'besaran', 'apd', 'dari', 'ri', 'di', 'januari', 'saat', 'kita', 'belum', 'ngeh', 'dgn', 'copid', 'saat', 'maret', 'ki']</t>
+          <t>['insya', 'allah', 'rakyat', 'negri', 'ini', 'patuh', 'pada', 'perintah', 'pemimpinnya', 'dan', 'mendengar', 'nasihat', 'ulamanya', 'hayuuuu', 'di', 'rumah', 'saja']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
+          <t>['insya', 'allah', 'rakyat', 'negeri', 'ini', 'patuh', 'pada', 'perintah', 'pemimpinnya', 'dan', 'mendengar', 'nasihat', 'ulamanya', 'hayuuuu', 'di', 'rumah', 'saja']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['pengusaha', 'bdg', 'china', 'pesan', 'besaran', 'apd', 'ri', 'januari', 'ngeh', 'copid', 'maret', 'ki']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['usaha', 'bdg', 'china', 'pesan', 'besar', 'apd', 'ri', 'januari', 'ngeh', 'copid', 'maret', 'ki']</t>
+          <t>['insya', 'allah', 'rakyat', 'negeri', 'patuh', 'perintah', 'pemimpinnya', 'mendengar', 'nasihat', 'ulamanya', 'hayuuuu', 'rumah']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['insya', 'allah', 'rakyat', 'negeri', 'patuh', 'perintah', 'pimpin', 'dengar', 'nasihat', 'ulama', 'hayuuuu', 'rumah']</t>
         </is>
       </c>
     </row>
@@ -3711,34 +4166,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15541</v>
+        <v>26308</v>
       </c>
       <c r="C92" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>rt alqarnee</t>
+          <t>kata pengusaha di bdg china pesan besaran apd dari ri di januari saat kita belum ngeh dgn copid saat maret ki</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['rt', 'alqarnee']</t>
+          <t>['kata', 'pengusaha', 'di', 'bdg', 'china', 'pesan', 'besaran', 'apd', 'dari', 'ri', 'di', 'januari', 'saat', 'kita', 'belum', 'ngeh', 'dgn', 'copid', 'saat', 'maret', 'ki']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['kata', 'pengusaha', 'di', 'bandung', 'cina', 'pesan', 'besaran', 'apd', 'dari', 'ri', 'di', 'januari', 'saat', 'kita', 'belum', 'tau', 'dengan', 'copid', 'saat', 'maret', 'ki']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['alqarnee']</t>
+          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['alqarnee']</t>
+          <t>['pengusaha', 'bandung', 'cina', 'pesan', 'besaran', 'apd', 'ri', 'januari', 'copid', 'maret', 'ki']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['usaha', 'bandung', 'cina', 'pesan', 'besar', 'apd', 'ri', 'januari', 'copid', 'maret', 'ki']</t>
         </is>
       </c>
     </row>
@@ -3747,34 +4207,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>15542</v>
+        <v>26309</v>
       </c>
       <c r="C93" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>rt memperingati isra miraj nabi muhammad saw tahun ini dari rumahkediaman kita masing bisa juga hayati dan ambil hikmahn</t>
+          <t>rt alqarnee</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['rt', 'memperingati', 'isra', 'miraj', 'nabi', 'muhammad', 'saw', 'tahun', 'ini', 'dari', 'rumahkediaman', 'kita', 'masing', 'bisa', 'juga', 'hayati', 'dan', 'ambil', 'hikmahn']</t>
+          <t>['rt', 'alqarnee']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'alqarnee']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['memperingati', 'isra', 'miraj', 'nabi', 'muhammad', 'saw', 'rumahkediaman', 'hayati', 'ambil', 'hikmahn']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['ingat', 'isra', 'miraj', 'nabi', 'muhammad', 'saw', 'rumahkediaman', 'hayati', 'ambil', 'hikmahn']</t>
+          <t>['alqarnee']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['alqarnee']</t>
         </is>
       </c>
     </row>
@@ -3783,34 +4248,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15543</v>
+        <v>26310</v>
       </c>
       <c r="C94" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>rt dalam kesempatan tersebut anggota fpks mengantar alkohol masker  dan hand sanitizer untuk rs persahabatan lebi</t>
+          <t>rt memperingati isra miraj nabi muhammad saw tahun ini dari rumahkediaman kita masing bisa juga hayati dan ambil hikmahn</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['rt', 'dalam', 'kesempatan', 'tersebut', 'anggota', 'fpks', 'mengantar', 'alkohol', 'masker', 'dan', 'hand', 'sanitizer', 'untuk', 'rs', 'persahabatan', 'lebi']</t>
+          <t>['rt', 'memperingati', 'isra', 'miraj', 'nabi', 'muhammad', 'saw', 'tahun', 'ini', 'dari', 'rumahkediaman', 'kita', 'masing', 'bisa', 'juga', 'hayati', 'dan', 'ambil', 'hikmahn']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'memperingati', 'isra', 'miraj', 'nabi', 'muhammad', 'saw', 'tahun', 'ini', 'dari', 'rumahkediaman', 'kita', 'masing', 'bisa', 'juga', 'hayati', 'dan', 'ambil', 'hikmahn']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['kesempatan', 'anggota', 'fpks', 'mengantar', 'alkohol', 'masker', 'hand', 'sanitizer', 'rs', 'persahabatan', 'lebi']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['sempat', 'anggota', 'fpks', 'antar', 'alkohol', 'masker', 'hand', 'sanitizer', 'rs', 'sahabat', 'lebi']</t>
+          <t>['memperingati', 'isra', 'miraj', 'nabi', 'muhammad', 'saw', 'rumahkediaman', 'hayati', 'ambil', 'hikmahn']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['ingat', 'isra', 'miraj', 'nabi', 'muhammad', 'saw', 'rumahkediaman', 'hayati', 'ambil', 'hikmahn']</t>
         </is>
       </c>
     </row>
@@ -3819,34 +4289,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15544</v>
+        <v>26311</v>
       </c>
       <c r="C95" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>saya sdh ikut share kultuit dr vivi alatas smg kita bisa bahu membahu dan bersatu jadapi covid ini</t>
+          <t>rt dalam kesempatan tersebut anggota fpks mengantar alkohol masker  dan hand sanitizer untuk rs persahabatan lebi</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['saya', 'sdh', 'ikut', 'share', 'kultuit', 'dr', 'vivi', 'alatas', 'smg', 'kita', 'bisa', 'bahu', 'membahu', 'dan', 'bersatu', 'jadapi', 'covid', 'ini']</t>
+          <t>['rt', 'dalam', 'kesempatan', 'tersebut', 'anggota', 'fpks', 'mengantar', 'alkohol', 'masker', 'dan', 'hand', 'sanitizer', 'untuk', 'rs', 'persahabatan', 'lebi']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'dalam', 'kesempatan', 'tersebut', 'anggota', 'fpks', 'mengantar', 'alkohol', 'masker', 'dan', 'hand', 'sanitizer', 'untuk', 'rumah, sakit', 'persahabatan', 'lebih']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['share', 'kultuit', 'dr', 'vivi', 'alatas', 'smg', 'bahu', 'membahu', 'bersatu', 'jadapi', 'covid']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['share', 'kultuit', 'dr', 'vivi', 'alatas', 'smg', 'bahu', 'bahu', 'satu', 'jadapi', 'covid']</t>
+          <t>['kesempatan', 'anggota', 'fpks', 'mengantar', 'alkohol', 'masker', 'hand', 'sanitizer', 'rumah, sakit', 'persahabatan']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['sempat', 'anggota', 'fpks', 'antar', 'alkohol', 'masker', 'hand', 'sanitizer', 'rumah sakit', 'sahabat']</t>
         </is>
       </c>
     </row>
@@ -3855,34 +4330,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15545</v>
+        <v>26312</v>
       </c>
       <c r="C96" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>rt rapat terbatas video conference mengenai kebijakan kelautan indonesia kamis maret</t>
+          <t>saya sdh ikut share kultuit dr vivi alatas smg kita bisa bahu membahu dan bersatu jadapi covid ini</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['rt', 'rapat', 'terbatas', 'video', 'conference', 'mengenai', 'kebijakan', 'kelautan', 'indonesia', 'kamis', 'maret']</t>
+          <t>['saya', 'sdh', 'ikut', 'share', 'kultuit', 'dr', 'vivi', 'alatas', 'smg', 'kita', 'bisa', 'bahu', 'membahu', 'dan', 'bersatu', 'jadapi', 'covid', 'ini']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['saya', 'sudah', 'ikut', 'bagikan', 'kultuit', 'dari', 'vivi', 'alatas', 'semoga', 'kita', 'bisa', 'bahu', 'membahu', 'dan', 'bersatu', 'jadapi', 'covid', 'ini']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['rapat', 'terbatas', 'video', 'conference', 'kebijakan', 'kelautan', 'indonesia', 'kamis', 'maret']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['rapat', 'batas', 'video', 'conference', 'bijak', 'laut', 'indonesia', 'kamis', 'maret']</t>
+          <t>['bagikan', 'kultuit', 'vivi', 'alatas', 'semoga', 'bahu', 'membahu', 'bersatu', 'jadapi', 'covid']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['bagi', 'kultuit', 'vivi', 'alatas', 'moga', 'bahu', 'bahu', 'satu', 'jadapi', 'covid']</t>
         </is>
       </c>
     </row>
@@ -3891,34 +4371,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15546</v>
+        <v>26313</v>
       </c>
       <c r="C97" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>kesejahtraan rakyat di sebuah negara selalu terjadi ketika sdm terampil negri itu diarahkan utk mengelola sda asal</t>
+          <t>rt rapat terbatas video conference mengenai kebijakan kelautan indonesia kamis maret</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['kesejahtraan', 'rakyat', 'di', 'sebuah', 'negara', 'selalu', 'terjadi', 'ketika', 'sdm', 'terampil', 'negri', 'itu', 'diarahkan', 'utk', 'mengelola', 'sda', 'asal']</t>
+          <t>['rt', 'rapat', 'terbatas', 'video', 'conference', 'mengenai', 'kebijakan', 'kelautan', 'indonesia', 'kamis', 'maret']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'rapat', 'terbatas', 'video', 'conference', 'mengenai', 'kebijakan', 'kelautan', 'indonesia', 'kamis', 'maret']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['kesejahtraan', 'rakyat', 'negara', 'sdm', 'terampil', 'negri', 'diarahkan', 'mengelola', 'sda']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['kesejahtraan', 'rakyat', 'negara', 'sdm', 'terampil', 'negri', 'arah', 'kelola', 'sda']</t>
+          <t>['rapat', 'terbatas', 'video', 'conference', 'kebijakan', 'kelautan', 'indonesia', 'kamis', 'maret']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['rapat', 'batas', 'video', 'conference', 'bijak', 'laut', 'indonesia', 'kamis', 'maret']</t>
         </is>
       </c>
     </row>
@@ -3927,34 +4412,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>15547</v>
+        <v>26314</v>
       </c>
       <c r="C98" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>tunggu perubahannya berarti gak jadi naik khan</t>
+          <t>kesejahtraan rakyat di sebuah negara selalu terjadi ketika sdm terampil negri itu diarahkan utk mengelola sda asal</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['tunggu', 'perubahannya', 'berarti', 'gak', 'jadi', 'naik', 'khan']</t>
+          <t>['kesejahtraan', 'rakyat', 'di', 'sebuah', 'negara', 'selalu', 'terjadi', 'ketika', 'sdm', 'terampil', 'negri', 'itu', 'diarahkan', 'utk', 'mengelola', 'sda', 'asal']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['kesejahtraan', 'rakyat', 'di', 'sebuah', 'negara', 'selalu', 'terjadi', 'ketika', 'sumber, daya, manusia', 'terampil', 'negeri', 'itu', 'diarahkan', 'untuk', 'mengelola', 'sda', 'asal']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['tunggu', 'perubahannya', 'khan']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['tunggu', 'ubah', 'khan']</t>
+          <t>['kesejahtraan', 'rakyat', 'negara', 'sumber, daya, manusia', 'terampil', 'negeri', 'diarahkan', 'mengelola', 'sda']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['kesejahtraan', 'rakyat', 'negara', 'sumber daya manusia', 'terampil', 'negeri', 'arah', 'kelola', 'sda']</t>
         </is>
       </c>
     </row>
@@ -3963,34 +4453,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15548</v>
+        <v>26315</v>
       </c>
       <c r="C99" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>anggota dpr periode sekarang bang rrbukan lagi</t>
+          <t>tunggu perubahannya berarti gak jadi naik khan</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['anggota', 'dpr', 'periode', 'sekarang', 'bang', 'rrbukan', 'lagi']</t>
+          <t>['tunggu', 'perubahannya', 'berarti', 'gak', 'jadi', 'naik', 'khan']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>['tunggu', 'perubahannya', 'berarti', 'tidak', 'jadi', 'naik', 'kan']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>['anggota', 'dpr', 'periode', 'bang', 'rrbukan']</t>
-        </is>
-      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['anggota', 'dpr', 'periode', 'bang', 'rrbukan']</t>
+          <t>['tunggu', 'perubahannya']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['tunggu', 'ubah']</t>
         </is>
       </c>
     </row>
@@ -3999,34 +4494,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15549</v>
+        <v>26316</v>
       </c>
       <c r="C100" t="n">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>akang kumaha damangmalam ini saya berdoa khusus utk</t>
+          <t>anggota dpr periode sekarang bang rrbukan lagi</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['akang', 'kumaha', 'damangmalam', 'ini', 'saya', 'berdoa', 'khusus', 'utk']</t>
+          <t>['anggota', 'dpr', 'periode', 'sekarang', 'bang', 'rrbukan', 'lagi']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['anggota', 'dewan, perwakilan, rakyat', 'periode', 'sekarang', 'bang', 'rrbukan', 'lagi']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['akang', 'kumaha', 'damangmalam', 'berdoa', 'khusus']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['akang', 'maha', 'damangmalam', 'doa', 'khusus']</t>
+          <t>['anggota', 'dewan, perwakilan, rakyat', 'periode', 'bang', 'rrbukan']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['anggota', 'dewan wakil rakyat', 'periode', 'bang', 'rrbukan']</t>
         </is>
       </c>
     </row>
